--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -6,9 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Brujula" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Transito" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Brujula" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Transito" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Crandall" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="123w" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -17,8 +18,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -334,7 +336,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -346,24 +359,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -408,9 +410,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -425,7 +426,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -433,34 +433,52 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,503 +859,491 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col width="14.85546875" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col hidden="1" width="14.85546875" customWidth="1" min="6" max="6"/>
+    <col hidden="1" min="8" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>▲</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>☐</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>Azimut</t>
         </is>
       </c>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="D1" s="11" t="n"/>
+      <c r="E1" s="11" t="n"/>
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Azimut Decimal</t>
         </is>
       </c>
-      <c r="G1" s="12" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>DH</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>PM</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>PP</t>
         </is>
       </c>
-      <c r="J1" s="7" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>CPM</t>
         </is>
       </c>
-      <c r="K1" s="7" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>CPP</t>
         </is>
       </c>
-      <c r="L1" s="7" t="inlineStr">
+      <c r="L1" s="6" t="inlineStr">
         <is>
           <t>PMC</t>
         </is>
       </c>
-      <c r="M1" s="7" t="inlineStr">
+      <c r="M1" s="6" t="inlineStr">
         <is>
           <t>PPM</t>
         </is>
       </c>
-      <c r="N1" s="12" t="inlineStr">
+      <c r="N1" s="11" t="inlineStr">
         <is>
           <t>Norte</t>
         </is>
       </c>
-      <c r="O1" s="17" t="inlineStr">
+      <c r="O1" s="15" t="inlineStr">
         <is>
           <t>Este</t>
         </is>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="13" t="n"/>
-      <c r="B2" s="14" t="n"/>
-      <c r="C2" s="14" t="inlineStr">
+      <c r="A2" s="12" t="n"/>
+      <c r="B2" s="13" t="n"/>
+      <c r="C2" s="13" t="inlineStr">
         <is>
           <t>Grados</t>
         </is>
       </c>
-      <c r="D2" s="14" t="inlineStr">
+      <c r="D2" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">Minutos </t>
         </is>
       </c>
-      <c r="E2" s="14" t="inlineStr">
+      <c r="E2" s="13" t="inlineStr">
         <is>
           <t>Segundos</t>
         </is>
       </c>
-      <c r="F2" s="8" t="n"/>
-      <c r="G2" s="14" t="n"/>
-      <c r="H2" s="8" t="n"/>
-      <c r="I2" s="8" t="n"/>
-      <c r="J2" s="8" t="n"/>
-      <c r="K2" s="8" t="n"/>
-      <c r="L2" s="8" t="n"/>
-      <c r="M2" s="8" t="n"/>
-      <c r="N2" s="14" t="n"/>
-      <c r="O2" s="18" t="n"/>
+      <c r="F2" s="7" t="n"/>
+      <c r="G2" s="13" t="n"/>
+      <c r="H2" s="7" t="n"/>
+      <c r="I2" s="7" t="n"/>
+      <c r="J2" s="7" t="n"/>
+      <c r="K2" s="7" t="n"/>
+      <c r="L2" s="7" t="n"/>
+      <c r="M2" s="7" t="n"/>
+      <c r="N2" s="13" t="n"/>
+      <c r="O2" s="16" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="n">
+      <c r="A3" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="n"/>
-      <c r="C3" s="15" t="n"/>
-      <c r="D3" s="15" t="n"/>
-      <c r="E3" s="15" t="n"/>
-      <c r="F3" s="9" t="n"/>
-      <c r="G3" s="15" t="n"/>
-      <c r="H3" s="9" t="n"/>
-      <c r="I3" s="9" t="n"/>
-      <c r="J3" s="9" t="n"/>
-      <c r="K3" s="9" t="n"/>
-      <c r="L3" s="9" t="n"/>
-      <c r="M3" s="9" t="n"/>
-      <c r="N3" s="15" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O3" s="15" t="n">
-        <v>2000</v>
+      <c r="B3" s="14" t="n"/>
+      <c r="C3" s="14" t="n"/>
+      <c r="D3" s="14" t="n"/>
+      <c r="E3" s="14" t="n"/>
+      <c r="F3" s="8" t="n"/>
+      <c r="G3" s="14" t="n"/>
+      <c r="H3" s="8" t="n"/>
+      <c r="I3" s="8" t="n"/>
+      <c r="J3" s="8" t="n"/>
+      <c r="K3" s="8" t="n"/>
+      <c r="L3" s="8" t="n"/>
+      <c r="M3" s="8" t="n"/>
+      <c r="N3" s="14" t="n">
+        <v>23432</v>
+      </c>
+      <c r="O3" s="14" t="n">
+        <v>65435</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="16" t="n"/>
-      <c r="B4" s="16" t="n">
+      <c r="A4" s="25" t="n"/>
+      <c r="B4" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="n">
+      <c r="C4" s="25" t="n">
         <v>38</v>
       </c>
-      <c r="D4" s="16" t="n">
+      <c r="D4" s="25" t="n">
         <v>12</v>
       </c>
-      <c r="E4" s="16" t="n">
+      <c r="E4" s="25" t="n">
         <v>45</v>
       </c>
-      <c r="F4" s="10" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="G4" s="16" t="n">
+      <c r="F4" s="9" t="n"/>
+      <c r="G4" s="25" t="n">
         <v>84.94</v>
       </c>
-      <c r="H4" s="10" t="n"/>
-      <c r="I4" s="10" t="n"/>
-      <c r="J4" s="10" t="n"/>
-      <c r="K4" s="10" t="n"/>
-      <c r="L4" s="10" t="n"/>
-      <c r="M4" s="10" t="n"/>
-      <c r="N4" s="16" t="n">
-        <v>2066.735</v>
-      </c>
-      <c r="O4" s="16" t="n">
-        <v>2052.517</v>
+      <c r="H4" s="9" t="n"/>
+      <c r="I4" s="9" t="n"/>
+      <c r="J4" s="9" t="n"/>
+      <c r="K4" s="9" t="n"/>
+      <c r="L4" s="9" t="n"/>
+      <c r="M4" s="9" t="n"/>
+      <c r="N4" s="25" t="n">
+        <v>23498.74152336798</v>
+      </c>
+      <c r="O4" s="25" t="n">
+        <v>65487.50590861497</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="16" t="n">
+      <c r="A5" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="n"/>
-      <c r="C5" s="16" t="n"/>
-      <c r="D5" s="16" t="n"/>
-      <c r="E5" s="16" t="n"/>
-      <c r="F5" s="10" t="n"/>
-      <c r="G5" s="16" t="n"/>
-      <c r="H5" s="10" t="n"/>
-      <c r="I5" s="10" t="n"/>
-      <c r="J5" s="10" t="n"/>
-      <c r="K5" s="10" t="n"/>
-      <c r="L5" s="10" t="n"/>
-      <c r="M5" s="10" t="n"/>
-      <c r="N5" s="16" t="n"/>
-      <c r="O5" s="16" t="n"/>
+      <c r="B5" s="25" t="n"/>
+      <c r="C5" s="25" t="n"/>
+      <c r="D5" s="25" t="n"/>
+      <c r="E5" s="25" t="n"/>
+      <c r="F5" s="9" t="n"/>
+      <c r="G5" s="25" t="n"/>
+      <c r="H5" s="9" t="n"/>
+      <c r="I5" s="9" t="n"/>
+      <c r="J5" s="9" t="n"/>
+      <c r="K5" s="9" t="n"/>
+      <c r="L5" s="9" t="n"/>
+      <c r="M5" s="9" t="n"/>
+      <c r="N5" s="25" t="n"/>
+      <c r="O5" s="25" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="16" t="n"/>
-      <c r="B6" s="16" t="n">
+      <c r="A6" s="25" t="n"/>
+      <c r="B6" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="25" t="n">
         <v>76</v>
       </c>
-      <c r="D6" s="16" t="n">
+      <c r="D6" s="25" t="n">
         <v>34</v>
       </c>
-      <c r="E6" s="16" t="n">
+      <c r="E6" s="25" t="n">
         <v>30</v>
       </c>
-      <c r="F6" s="10" t="n">
-        <v>1.336</v>
-      </c>
-      <c r="G6" s="16" t="n">
+      <c r="F6" s="9" t="n"/>
+      <c r="G6" s="25" t="n">
         <v>75.27</v>
       </c>
-      <c r="H6" s="10" t="n"/>
-      <c r="I6" s="10" t="n"/>
-      <c r="J6" s="10" t="n"/>
-      <c r="K6" s="10" t="n"/>
-      <c r="L6" s="10" t="n"/>
-      <c r="M6" s="10" t="n"/>
-      <c r="N6" s="16" t="n">
-        <v>2084.245</v>
-      </c>
-      <c r="O6" s="16" t="n">
-        <v>2125.695</v>
+      <c r="H6" s="9" t="n"/>
+      <c r="I6" s="9" t="n"/>
+      <c r="J6" s="9" t="n"/>
+      <c r="K6" s="9" t="n"/>
+      <c r="L6" s="9" t="n"/>
+      <c r="M6" s="9" t="n"/>
+      <c r="N6" s="25" t="n">
+        <v>23516.21917335175</v>
+      </c>
+      <c r="O6" s="25" t="n">
+        <v>65560.68699703374</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="16" t="n">
+      <c r="A7" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="n"/>
-      <c r="C7" s="16" t="n"/>
-      <c r="D7" s="16" t="n"/>
-      <c r="E7" s="16" t="n"/>
-      <c r="F7" s="10" t="n"/>
-      <c r="G7" s="16" t="n"/>
-      <c r="H7" s="10" t="n"/>
-      <c r="I7" s="10" t="n"/>
-      <c r="J7" s="10" t="n"/>
-      <c r="K7" s="10" t="n"/>
-      <c r="L7" s="10" t="n"/>
-      <c r="M7" s="10" t="n"/>
-      <c r="N7" s="16" t="n"/>
-      <c r="O7" s="16" t="n"/>
+      <c r="B7" s="25" t="n"/>
+      <c r="C7" s="25" t="n"/>
+      <c r="D7" s="25" t="n"/>
+      <c r="E7" s="25" t="n"/>
+      <c r="F7" s="9" t="n"/>
+      <c r="G7" s="25" t="n"/>
+      <c r="H7" s="9" t="n"/>
+      <c r="I7" s="9" t="n"/>
+      <c r="J7" s="9" t="n"/>
+      <c r="K7" s="9" t="n"/>
+      <c r="L7" s="9" t="n"/>
+      <c r="M7" s="9" t="n"/>
+      <c r="N7" s="25" t="n"/>
+      <c r="O7" s="25" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="16" t="n"/>
-      <c r="B8" s="16" t="n">
+      <c r="A8" s="25" t="n"/>
+      <c r="B8" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="16" t="n">
+      <c r="C8" s="25" t="n">
         <v>144</v>
       </c>
-      <c r="D8" s="16" t="n">
+      <c r="D8" s="25" t="n">
         <v>49</v>
       </c>
-      <c r="E8" s="16" t="n">
+      <c r="E8" s="25" t="n">
         <v>48</v>
       </c>
-      <c r="F8" s="10" t="n">
-        <v>2.528</v>
-      </c>
-      <c r="G8" s="16" t="n">
+      <c r="F8" s="9" t="n"/>
+      <c r="G8" s="25" t="n">
         <v>85.29000000000001</v>
       </c>
-      <c r="H8" s="10" t="n"/>
-      <c r="I8" s="10" t="n"/>
-      <c r="J8" s="10" t="n"/>
-      <c r="K8" s="10" t="n"/>
-      <c r="L8" s="10" t="n"/>
-      <c r="M8" s="10" t="n"/>
-      <c r="N8" s="16" t="n">
-        <v>2014.512</v>
-      </c>
-      <c r="O8" s="16" t="n">
-        <v>2174.776</v>
+      <c r="H8" s="9" t="n"/>
+      <c r="I8" s="9" t="n"/>
+      <c r="J8" s="9" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="9" t="n"/>
+      <c r="M8" s="9" t="n"/>
+      <c r="N8" s="25" t="n">
+        <v>23446.50146203801</v>
+      </c>
+      <c r="O8" s="25" t="n">
+        <v>65609.77799930189</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="16" t="n">
+      <c r="A9" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="16" t="n"/>
-      <c r="C9" s="16" t="n"/>
-      <c r="D9" s="16" t="n"/>
-      <c r="E9" s="16" t="n"/>
-      <c r="F9" s="10" t="n"/>
-      <c r="G9" s="16" t="n"/>
-      <c r="H9" s="10" t="n"/>
-      <c r="I9" s="10" t="n"/>
-      <c r="J9" s="10" t="n"/>
-      <c r="K9" s="10" t="n"/>
-      <c r="L9" s="10" t="n"/>
-      <c r="M9" s="10" t="n"/>
-      <c r="N9" s="16" t="n"/>
-      <c r="O9" s="16" t="n"/>
+      <c r="B9" s="25" t="n"/>
+      <c r="C9" s="25" t="n"/>
+      <c r="D9" s="25" t="n"/>
+      <c r="E9" s="25" t="n"/>
+      <c r="F9" s="9" t="n"/>
+      <c r="G9" s="25" t="n"/>
+      <c r="H9" s="9" t="n"/>
+      <c r="I9" s="9" t="n"/>
+      <c r="J9" s="9" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="9" t="n"/>
+      <c r="M9" s="9" t="n"/>
+      <c r="N9" s="25" t="n"/>
+      <c r="O9" s="25" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="n"/>
-      <c r="B10" s="16" t="n">
+      <c r="A10" s="25" t="n"/>
+      <c r="B10" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="16" t="n">
+      <c r="C10" s="25" t="n">
         <v>192</v>
       </c>
-      <c r="D10" s="16" t="n">
+      <c r="D10" s="25" t="n">
         <v>57</v>
       </c>
-      <c r="E10" s="16" t="n">
+      <c r="E10" s="25" t="n">
         <v>32</v>
       </c>
-      <c r="F10" s="10" t="n">
-        <v>3.368</v>
-      </c>
-      <c r="G10" s="16" t="n">
+      <c r="F10" s="9" t="n"/>
+      <c r="G10" s="25" t="n">
         <v>92.34</v>
       </c>
-      <c r="H10" s="10" t="n"/>
-      <c r="I10" s="10" t="n"/>
-      <c r="J10" s="10" t="n"/>
-      <c r="K10" s="10" t="n"/>
-      <c r="L10" s="10" t="n"/>
-      <c r="M10" s="10" t="n"/>
-      <c r="N10" s="16" t="n">
-        <v>1924.528</v>
-      </c>
-      <c r="O10" s="16" t="n">
-        <v>2154.015</v>
+      <c r="H10" s="9" t="n"/>
+      <c r="I10" s="9" t="n"/>
+      <c r="J10" s="9" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="9" t="n"/>
+      <c r="M10" s="9" t="n"/>
+      <c r="N10" s="25" t="n">
+        <v>23356.51574960899</v>
+      </c>
+      <c r="O10" s="25" t="n">
+        <v>65589.03116120076</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="16" t="n">
+      <c r="A11" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="16" t="n"/>
-      <c r="C11" s="16" t="n"/>
-      <c r="D11" s="16" t="n"/>
-      <c r="E11" s="16" t="n"/>
-      <c r="F11" s="10" t="n"/>
-      <c r="G11" s="16" t="n"/>
-      <c r="H11" s="10" t="n"/>
-      <c r="I11" s="10" t="n"/>
-      <c r="J11" s="10" t="n"/>
-      <c r="K11" s="10" t="n"/>
-      <c r="L11" s="10" t="n"/>
-      <c r="M11" s="10" t="n"/>
-      <c r="N11" s="16" t="n"/>
-      <c r="O11" s="16" t="n"/>
+      <c r="B11" s="25" t="n"/>
+      <c r="C11" s="25" t="n"/>
+      <c r="D11" s="25" t="n"/>
+      <c r="E11" s="25" t="n"/>
+      <c r="F11" s="9" t="n"/>
+      <c r="G11" s="25" t="n"/>
+      <c r="H11" s="9" t="n"/>
+      <c r="I11" s="9" t="n"/>
+      <c r="J11" s="9" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="9" t="n"/>
+      <c r="M11" s="9" t="n"/>
+      <c r="N11" s="25" t="n"/>
+      <c r="O11" s="25" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="16" t="n"/>
-      <c r="B12" s="16" t="n">
+      <c r="A12" s="25" t="n"/>
+      <c r="B12" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="16" t="n">
+      <c r="C12" s="25" t="n">
         <v>316</v>
       </c>
-      <c r="D12" s="16" t="n">
+      <c r="D12" s="25" t="n">
         <v>50</v>
       </c>
-      <c r="E12" s="16" t="n">
+      <c r="E12" s="25" t="n">
         <v>47</v>
       </c>
-      <c r="F12" s="10" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="G12" s="16" t="n">
+      <c r="F12" s="9" t="n"/>
+      <c r="G12" s="25" t="n">
         <v>63.15</v>
       </c>
-      <c r="H12" s="10" t="n"/>
-      <c r="I12" s="10" t="n"/>
-      <c r="J12" s="10" t="n"/>
-      <c r="K12" s="10" t="n"/>
-      <c r="L12" s="10" t="n"/>
-      <c r="M12" s="10" t="n"/>
-      <c r="N12" s="16" t="n">
-        <v>1970.596</v>
-      </c>
-      <c r="O12" s="16" t="n">
-        <v>2110.801</v>
+      <c r="H12" s="9" t="n"/>
+      <c r="I12" s="9" t="n"/>
+      <c r="J12" s="9" t="n"/>
+      <c r="K12" s="9" t="n"/>
+      <c r="L12" s="9" t="n"/>
+      <c r="M12" s="9" t="n"/>
+      <c r="N12" s="25" t="n">
+        <v>23402.58681345568</v>
+      </c>
+      <c r="O12" s="25" t="n">
+        <v>65545.81233729332</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="16" t="n">
+      <c r="A13" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="B13" s="16" t="n"/>
-      <c r="C13" s="16" t="n"/>
-      <c r="D13" s="16" t="n"/>
-      <c r="E13" s="16" t="n"/>
-      <c r="F13" s="10" t="n"/>
-      <c r="G13" s="16" t="n"/>
-      <c r="H13" s="10" t="n"/>
-      <c r="I13" s="10" t="n"/>
-      <c r="J13" s="10" t="n"/>
-      <c r="K13" s="10" t="n"/>
-      <c r="L13" s="10" t="n"/>
-      <c r="M13" s="10" t="n"/>
-      <c r="N13" s="16" t="n"/>
-      <c r="O13" s="16" t="n"/>
+      <c r="B13" s="25" t="n"/>
+      <c r="C13" s="25" t="n"/>
+      <c r="D13" s="25" t="n"/>
+      <c r="E13" s="25" t="n"/>
+      <c r="F13" s="9" t="n"/>
+      <c r="G13" s="25" t="n"/>
+      <c r="H13" s="9" t="n"/>
+      <c r="I13" s="9" t="n"/>
+      <c r="J13" s="9" t="n"/>
+      <c r="K13" s="9" t="n"/>
+      <c r="L13" s="9" t="n"/>
+      <c r="M13" s="9" t="n"/>
+      <c r="N13" s="25" t="n"/>
+      <c r="O13" s="25" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="16" t="n"/>
-      <c r="B14" s="16" t="n">
+      <c r="A14" s="25" t="n"/>
+      <c r="B14" s="25" t="n">
         <v>7</v>
       </c>
-      <c r="C14" s="16" t="n">
+      <c r="C14" s="25" t="n">
         <v>254</v>
       </c>
-      <c r="D14" s="16" t="n">
+      <c r="D14" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="E14" s="16" t="n">
+      <c r="E14" s="25" t="n">
         <v>29</v>
       </c>
-      <c r="F14" s="10" t="n">
-        <v>4.435</v>
-      </c>
-      <c r="G14" s="16" t="n">
+      <c r="F14" s="9" t="n"/>
+      <c r="G14" s="25" t="n">
         <v>86.34999999999999</v>
       </c>
-      <c r="H14" s="10" t="n"/>
-      <c r="I14" s="10" t="n"/>
-      <c r="J14" s="10" t="n"/>
-      <c r="K14" s="10" t="n"/>
-      <c r="L14" s="10" t="n"/>
-      <c r="M14" s="10" t="n"/>
-      <c r="N14" s="16" t="n">
-        <v>1946.948</v>
-      </c>
-      <c r="O14" s="16" t="n">
-        <v>2027.721</v>
+      <c r="H14" s="9" t="n"/>
+      <c r="I14" s="9" t="n"/>
+      <c r="J14" s="9" t="n"/>
+      <c r="K14" s="9" t="n"/>
+      <c r="L14" s="9" t="n"/>
+      <c r="M14" s="9" t="n"/>
+      <c r="N14" s="25" t="n">
+        <v>23378.94444951885</v>
+      </c>
+      <c r="O14" s="25" t="n">
+        <v>65462.72578611921</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="16" t="n">
+      <c r="A15" s="25" t="n">
         <v>7</v>
       </c>
-      <c r="B15" s="16" t="n"/>
-      <c r="C15" s="16" t="n"/>
-      <c r="D15" s="16" t="n"/>
-      <c r="E15" s="16" t="n"/>
-      <c r="F15" s="10" t="n"/>
-      <c r="G15" s="16" t="n"/>
-      <c r="H15" s="10" t="n"/>
-      <c r="I15" s="10" t="n"/>
-      <c r="J15" s="10" t="n"/>
-      <c r="K15" s="10" t="n"/>
-      <c r="L15" s="10" t="n"/>
-      <c r="M15" s="10" t="n"/>
-      <c r="N15" s="16" t="n"/>
-      <c r="O15" s="16" t="n"/>
+      <c r="B15" s="25" t="n"/>
+      <c r="C15" s="25" t="n"/>
+      <c r="D15" s="25" t="n"/>
+      <c r="E15" s="25" t="n"/>
+      <c r="F15" s="9" t="n"/>
+      <c r="G15" s="25" t="n"/>
+      <c r="H15" s="9" t="n"/>
+      <c r="I15" s="9" t="n"/>
+      <c r="J15" s="9" t="n"/>
+      <c r="K15" s="9" t="n"/>
+      <c r="L15" s="9" t="n"/>
+      <c r="M15" s="9" t="n"/>
+      <c r="N15" s="25" t="n"/>
+      <c r="O15" s="25" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="16" t="n"/>
-      <c r="B16" s="16" t="n">
+      <c r="A16" s="25" t="n"/>
+      <c r="B16" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="16" t="n">
+      <c r="C16" s="25" t="n">
         <v>332</v>
       </c>
-      <c r="D16" s="16" t="n">
+      <c r="D16" s="25" t="n">
         <v>25</v>
       </c>
-      <c r="E16" s="16" t="n">
+      <c r="E16" s="25" t="n">
         <v>49</v>
       </c>
-      <c r="F16" s="10" t="n">
-        <v>5.802</v>
-      </c>
-      <c r="G16" s="16" t="n">
+      <c r="F16" s="9" t="n"/>
+      <c r="G16" s="25" t="n">
         <v>59.85</v>
       </c>
-      <c r="H16" s="10" t="n"/>
-      <c r="I16" s="10" t="n"/>
-      <c r="J16" s="10" t="n"/>
-      <c r="K16" s="10" t="n"/>
-      <c r="L16" s="10" t="n"/>
-      <c r="M16" s="10" t="n"/>
-      <c r="N16" s="21" t="n">
-        <v>2000.001</v>
-      </c>
-      <c r="O16" s="21" t="n">
-        <v>2000</v>
+      <c r="H16" s="9" t="n"/>
+      <c r="I16" s="9" t="n"/>
+      <c r="J16" s="9" t="n"/>
+      <c r="K16" s="9" t="n"/>
+      <c r="L16" s="9" t="n"/>
+      <c r="M16" s="9" t="n"/>
+      <c r="N16" s="19" t="n">
+        <v>23432</v>
+      </c>
+      <c r="O16" s="19" t="n">
+        <v>65435.00000000001</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="16" t="n"/>
-      <c r="B17" s="16" t="n"/>
-      <c r="C17" s="16" t="n"/>
-      <c r="D17" s="16" t="n"/>
-      <c r="E17" s="16" t="n"/>
-      <c r="F17" s="10" t="n"/>
-      <c r="G17" s="19" t="n"/>
-      <c r="H17" s="10" t="n"/>
-      <c r="I17" s="10" t="n"/>
-      <c r="J17" s="10" t="n"/>
-      <c r="K17" s="10" t="n"/>
-      <c r="L17" s="10" t="n">
+      <c r="A17" s="25" t="n"/>
+      <c r="B17" s="25" t="n"/>
+      <c r="C17" s="25" t="n"/>
+      <c r="D17" s="25" t="n"/>
+      <c r="E17" s="25" t="n"/>
+      <c r="F17" s="9" t="n"/>
+      <c r="G17" s="17" t="n"/>
+      <c r="H17" s="9" t="n"/>
+      <c r="I17" s="9" t="n"/>
+      <c r="J17" s="9" t="n"/>
+      <c r="K17" s="9" t="n"/>
+      <c r="L17" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M17" s="20" t="n">
+      <c r="M17" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="22" t="n"/>
-      <c r="O17" s="23" t="n"/>
+      <c r="N17" s="20" t="n"/>
+      <c r="O17" s="21" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -1347,10 +1353,1064 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4:Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>▲</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>☐</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>Azimut</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="n"/>
+      <c r="E1" s="11" t="n"/>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>Azimut Decimal</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>DH</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I1" s="29" t="inlineStr">
+        <is>
+          <t>VY</t>
+        </is>
+      </c>
+      <c r="J1" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K1" s="29" t="inlineStr">
+        <is>
+          <t>VX</t>
+        </is>
+      </c>
+      <c r="L1" s="29" t="inlineStr">
+        <is>
+          <t>CY</t>
+        </is>
+      </c>
+      <c r="M1" s="29" t="inlineStr">
+        <is>
+          <t>CX</t>
+        </is>
+      </c>
+      <c r="N1" s="29" t="inlineStr">
+        <is>
+          <t>YC</t>
+        </is>
+      </c>
+      <c r="O1" s="29" t="inlineStr">
+        <is>
+          <t>XC</t>
+        </is>
+      </c>
+      <c r="P1" s="11" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+      <c r="Q1" s="15" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="12" t="n"/>
+      <c r="B2" s="13" t="n"/>
+      <c r="C2" s="13" t="inlineStr">
+        <is>
+          <t>Grados</t>
+        </is>
+      </c>
+      <c r="D2" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Minutos </t>
+        </is>
+      </c>
+      <c r="E2" s="13" t="inlineStr">
+        <is>
+          <t>Segundos</t>
+        </is>
+      </c>
+      <c r="F2" s="7" t="n"/>
+      <c r="G2" s="13" t="n"/>
+      <c r="H2" s="7" t="n"/>
+      <c r="I2" s="30" t="n"/>
+      <c r="J2" s="7" t="n"/>
+      <c r="K2" s="30" t="n"/>
+      <c r="L2" s="30" t="n"/>
+      <c r="M2" s="30" t="n"/>
+      <c r="N2" s="30" t="n"/>
+      <c r="O2" s="30" t="n"/>
+      <c r="P2" s="13" t="n"/>
+      <c r="Q2" s="16" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="n"/>
+      <c r="C3" s="14" t="n"/>
+      <c r="D3" s="14" t="n"/>
+      <c r="E3" s="14" t="n"/>
+      <c r="F3" s="8" t="n"/>
+      <c r="G3" s="14" t="n"/>
+      <c r="H3" s="8" t="n"/>
+      <c r="I3" s="8" t="n"/>
+      <c r="J3" s="8" t="n"/>
+      <c r="K3" s="8" t="n"/>
+      <c r="L3" s="8" t="n"/>
+      <c r="M3" s="8" t="n"/>
+      <c r="N3" s="8" t="n"/>
+      <c r="O3" s="8" t="n"/>
+      <c r="P3" s="14" t="n"/>
+      <c r="Q3" s="14" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="25" t="n"/>
+      <c r="B4" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="25" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" s="25" t="n">
+        <v>12</v>
+      </c>
+      <c r="E4" s="25" t="n">
+        <v>45</v>
+      </c>
+      <c r="F4" s="9" t="n"/>
+      <c r="G4" s="25" t="n">
+        <v>84.94</v>
+      </c>
+      <c r="H4" s="9" t="n"/>
+      <c r="I4" s="9" t="n"/>
+      <c r="J4" s="9" t="n"/>
+      <c r="K4" s="9" t="n"/>
+      <c r="L4" s="9" t="n"/>
+      <c r="M4" s="9" t="n"/>
+      <c r="N4" s="9" t="n"/>
+      <c r="O4" s="9" t="n"/>
+      <c r="P4" s="25" t="n"/>
+      <c r="Q4" s="25" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25" t="n"/>
+      <c r="C5" s="25" t="n"/>
+      <c r="D5" s="25" t="n"/>
+      <c r="E5" s="25" t="n"/>
+      <c r="F5" s="9" t="n"/>
+      <c r="G5" s="25" t="n"/>
+      <c r="H5" s="9" t="n"/>
+      <c r="I5" s="9" t="n"/>
+      <c r="J5" s="9" t="n"/>
+      <c r="K5" s="9" t="n"/>
+      <c r="L5" s="9" t="n"/>
+      <c r="M5" s="9" t="n"/>
+      <c r="N5" s="9" t="n"/>
+      <c r="O5" s="9" t="n"/>
+      <c r="P5" s="25" t="n"/>
+      <c r="Q5" s="25" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="25" t="n"/>
+      <c r="B6" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="25" t="n">
+        <v>76</v>
+      </c>
+      <c r="D6" s="25" t="n">
+        <v>34</v>
+      </c>
+      <c r="E6" s="25" t="n">
+        <v>30</v>
+      </c>
+      <c r="F6" s="9" t="n"/>
+      <c r="G6" s="25" t="n">
+        <v>75.27</v>
+      </c>
+      <c r="H6" s="9" t="n"/>
+      <c r="I6" s="9" t="n"/>
+      <c r="J6" s="9" t="n"/>
+      <c r="K6" s="9" t="n"/>
+      <c r="L6" s="9" t="n"/>
+      <c r="M6" s="9" t="n"/>
+      <c r="N6" s="9" t="n"/>
+      <c r="O6" s="9" t="n"/>
+      <c r="P6" s="25" t="n"/>
+      <c r="Q6" s="25" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="25" t="n"/>
+      <c r="C7" s="25" t="n"/>
+      <c r="D7" s="25" t="n"/>
+      <c r="E7" s="25" t="n"/>
+      <c r="F7" s="9" t="n"/>
+      <c r="G7" s="25" t="n"/>
+      <c r="H7" s="9" t="n"/>
+      <c r="I7" s="9" t="n"/>
+      <c r="J7" s="9" t="n"/>
+      <c r="K7" s="9" t="n"/>
+      <c r="L7" s="9" t="n"/>
+      <c r="M7" s="9" t="n"/>
+      <c r="N7" s="9" t="n"/>
+      <c r="O7" s="9" t="n"/>
+      <c r="P7" s="25" t="n"/>
+      <c r="Q7" s="25" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="25" t="n"/>
+      <c r="B8" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="25" t="n">
+        <v>144</v>
+      </c>
+      <c r="D8" s="25" t="n">
+        <v>49</v>
+      </c>
+      <c r="E8" s="25" t="n">
+        <v>48</v>
+      </c>
+      <c r="F8" s="9" t="n"/>
+      <c r="G8" s="25" t="n">
+        <v>85.29000000000001</v>
+      </c>
+      <c r="H8" s="9" t="n"/>
+      <c r="I8" s="9" t="n"/>
+      <c r="J8" s="9" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="9" t="n"/>
+      <c r="M8" s="9" t="n"/>
+      <c r="N8" s="9" t="n"/>
+      <c r="O8" s="9" t="n"/>
+      <c r="P8" s="25" t="n"/>
+      <c r="Q8" s="25" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="25" t="n"/>
+      <c r="C9" s="25" t="n"/>
+      <c r="D9" s="25" t="n"/>
+      <c r="E9" s="25" t="n"/>
+      <c r="F9" s="9" t="n"/>
+      <c r="G9" s="25" t="n"/>
+      <c r="H9" s="9" t="n"/>
+      <c r="I9" s="9" t="n"/>
+      <c r="J9" s="9" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="9" t="n"/>
+      <c r="M9" s="9" t="n"/>
+      <c r="N9" s="9" t="n"/>
+      <c r="O9" s="9" t="n"/>
+      <c r="P9" s="25" t="n"/>
+      <c r="Q9" s="25" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="25" t="n"/>
+      <c r="B10" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" s="25" t="n">
+        <v>192</v>
+      </c>
+      <c r="D10" s="25" t="n">
+        <v>57</v>
+      </c>
+      <c r="E10" s="25" t="n">
+        <v>32</v>
+      </c>
+      <c r="F10" s="9" t="n"/>
+      <c r="G10" s="25" t="n">
+        <v>92.34</v>
+      </c>
+      <c r="H10" s="9" t="n"/>
+      <c r="I10" s="9" t="n"/>
+      <c r="J10" s="9" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="9" t="n"/>
+      <c r="M10" s="9" t="n"/>
+      <c r="N10" s="9" t="n"/>
+      <c r="O10" s="9" t="n"/>
+      <c r="P10" s="25" t="n"/>
+      <c r="Q10" s="25" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="25" t="n"/>
+      <c r="C11" s="25" t="n"/>
+      <c r="D11" s="25" t="n"/>
+      <c r="E11" s="25" t="n"/>
+      <c r="F11" s="9" t="n"/>
+      <c r="G11" s="25" t="n"/>
+      <c r="H11" s="9" t="n"/>
+      <c r="I11" s="9" t="n"/>
+      <c r="J11" s="9" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="9" t="n"/>
+      <c r="M11" s="9" t="n"/>
+      <c r="N11" s="9" t="n"/>
+      <c r="O11" s="9" t="n"/>
+      <c r="P11" s="25" t="n"/>
+      <c r="Q11" s="25" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="25" t="n"/>
+      <c r="B12" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" s="25" t="n">
+        <v>316</v>
+      </c>
+      <c r="D12" s="25" t="n">
+        <v>50</v>
+      </c>
+      <c r="E12" s="25" t="n">
+        <v>47</v>
+      </c>
+      <c r="F12" s="9" t="n"/>
+      <c r="G12" s="25" t="n">
+        <v>63.15</v>
+      </c>
+      <c r="H12" s="9" t="n"/>
+      <c r="I12" s="9" t="n"/>
+      <c r="J12" s="9" t="n"/>
+      <c r="K12" s="9" t="n"/>
+      <c r="L12" s="9" t="n"/>
+      <c r="M12" s="9" t="n"/>
+      <c r="N12" s="9" t="n"/>
+      <c r="O12" s="9" t="n"/>
+      <c r="P12" s="25" t="n"/>
+      <c r="Q12" s="25" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="B13" s="25" t="n"/>
+      <c r="C13" s="25" t="n"/>
+      <c r="D13" s="25" t="n"/>
+      <c r="E13" s="25" t="n"/>
+      <c r="F13" s="9" t="n"/>
+      <c r="G13" s="25" t="n"/>
+      <c r="H13" s="9" t="n"/>
+      <c r="I13" s="9" t="n"/>
+      <c r="J13" s="9" t="n"/>
+      <c r="K13" s="9" t="n"/>
+      <c r="L13" s="9" t="n"/>
+      <c r="M13" s="9" t="n"/>
+      <c r="N13" s="9" t="n"/>
+      <c r="O13" s="9" t="n"/>
+      <c r="P13" s="25" t="n"/>
+      <c r="Q13" s="25" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="25" t="n"/>
+      <c r="B14" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" s="25" t="n">
+        <v>254</v>
+      </c>
+      <c r="D14" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" s="25" t="n">
+        <v>29</v>
+      </c>
+      <c r="F14" s="9" t="n"/>
+      <c r="G14" s="25" t="n">
+        <v>86.34999999999999</v>
+      </c>
+      <c r="H14" s="9" t="n"/>
+      <c r="I14" s="9" t="n"/>
+      <c r="J14" s="9" t="n"/>
+      <c r="K14" s="9" t="n"/>
+      <c r="L14" s="9" t="n"/>
+      <c r="M14" s="9" t="n"/>
+      <c r="N14" s="9" t="n"/>
+      <c r="O14" s="9" t="n"/>
+      <c r="P14" s="25" t="n"/>
+      <c r="Q14" s="25" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" s="25" t="n"/>
+      <c r="C15" s="25" t="n"/>
+      <c r="D15" s="25" t="n"/>
+      <c r="E15" s="25" t="n"/>
+      <c r="F15" s="9" t="n"/>
+      <c r="G15" s="25" t="n"/>
+      <c r="H15" s="9" t="n"/>
+      <c r="I15" s="9" t="n"/>
+      <c r="J15" s="9" t="n"/>
+      <c r="K15" s="9" t="n"/>
+      <c r="L15" s="9" t="n"/>
+      <c r="M15" s="9" t="n"/>
+      <c r="N15" s="9" t="n"/>
+      <c r="O15" s="9" t="n"/>
+      <c r="P15" s="25" t="n"/>
+      <c r="Q15" s="25" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="25" t="n"/>
+      <c r="B16" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="25" t="n">
+        <v>332</v>
+      </c>
+      <c r="D16" s="25" t="n">
+        <v>25</v>
+      </c>
+      <c r="E16" s="25" t="n">
+        <v>49</v>
+      </c>
+      <c r="F16" s="9" t="n"/>
+      <c r="G16" s="25" t="n">
+        <v>59.85</v>
+      </c>
+      <c r="H16" s="9" t="n"/>
+      <c r="I16" s="9" t="n"/>
+      <c r="J16" s="9" t="n"/>
+      <c r="K16" s="9" t="n"/>
+      <c r="L16" s="9" t="n"/>
+      <c r="M16" s="9" t="n"/>
+      <c r="N16" s="9" t="n"/>
+      <c r="O16" s="9" t="n"/>
+      <c r="P16" s="25" t="n"/>
+      <c r="Q16" s="25" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="25" t="n"/>
+      <c r="B17" s="25" t="n"/>
+      <c r="C17" s="25" t="n"/>
+      <c r="D17" s="25" t="n"/>
+      <c r="E17" s="25" t="n"/>
+      <c r="F17" s="9" t="n"/>
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="2" t="n"/>
+      <c r="I17" s="2" t="n"/>
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
+      <c r="L17" s="9" t="n"/>
+      <c r="M17" s="9" t="n"/>
+      <c r="N17" s="9" t="n"/>
+      <c r="O17" s="9" t="n"/>
+      <c r="P17" s="25" t="n"/>
+      <c r="Q17" s="25" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S17"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S4" sqref="R4:S16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="33" t="inlineStr">
+        <is>
+          <t>▲</t>
+        </is>
+      </c>
+      <c r="B1" s="35" t="inlineStr">
+        <is>
+          <t>☐</t>
+        </is>
+      </c>
+      <c r="C1" s="36" t="inlineStr">
+        <is>
+          <t>Azimut</t>
+        </is>
+      </c>
+      <c r="D1" s="37" t="n"/>
+      <c r="E1" s="38" t="n"/>
+      <c r="F1" s="39" t="inlineStr">
+        <is>
+          <t>Azimut Decimal</t>
+        </is>
+      </c>
+      <c r="G1" s="40" t="inlineStr">
+        <is>
+          <t>DH</t>
+        </is>
+      </c>
+      <c r="H1" s="42" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I1" s="31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J1" s="31" t="inlineStr">
+        <is>
+          <t>L^2</t>
+        </is>
+      </c>
+      <c r="K1" s="31" t="inlineStr">
+        <is>
+          <t>D^2</t>
+        </is>
+      </c>
+      <c r="L1" s="31" t="inlineStr">
+        <is>
+          <t>LD</t>
+        </is>
+      </c>
+      <c r="M1" s="31" t="inlineStr">
+        <is>
+          <t>(LD)^2</t>
+        </is>
+      </c>
+      <c r="N1" s="31" t="inlineStr">
+        <is>
+          <t>CY</t>
+        </is>
+      </c>
+      <c r="O1" s="31" t="inlineStr">
+        <is>
+          <t>CX</t>
+        </is>
+      </c>
+      <c r="P1" s="31" t="inlineStr">
+        <is>
+          <t>YCORREGIDO</t>
+        </is>
+      </c>
+      <c r="Q1" s="31" t="inlineStr">
+        <is>
+          <t>XCORREGIDO</t>
+        </is>
+      </c>
+      <c r="R1" s="31" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+      <c r="S1" s="31" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="34" t="n"/>
+      <c r="B2" s="32" t="n"/>
+      <c r="C2" s="13" t="inlineStr">
+        <is>
+          <t>Grados</t>
+        </is>
+      </c>
+      <c r="D2" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Minutos </t>
+        </is>
+      </c>
+      <c r="E2" s="13" t="inlineStr">
+        <is>
+          <t>Segundos</t>
+        </is>
+      </c>
+      <c r="F2" s="32" t="n"/>
+      <c r="G2" s="41" t="n"/>
+      <c r="H2" s="34" t="n"/>
+      <c r="I2" s="32" t="n"/>
+      <c r="J2" s="32" t="n"/>
+      <c r="K2" s="32" t="n"/>
+      <c r="L2" s="32" t="n"/>
+      <c r="M2" s="32" t="n"/>
+      <c r="N2" s="32" t="n"/>
+      <c r="O2" s="32" t="n"/>
+      <c r="P2" s="32" t="n"/>
+      <c r="Q2" s="32" t="n"/>
+      <c r="R2" s="32" t="n"/>
+      <c r="S2" s="32" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="n"/>
+      <c r="C3" s="14" t="n"/>
+      <c r="D3" s="14" t="n"/>
+      <c r="E3" s="14" t="n"/>
+      <c r="F3" s="32" t="n"/>
+      <c r="G3" s="14" t="n"/>
+      <c r="H3" s="27" t="n"/>
+      <c r="I3" s="27" t="n"/>
+      <c r="J3" s="27" t="n"/>
+      <c r="K3" s="27" t="n"/>
+      <c r="L3" s="27" t="n"/>
+      <c r="M3" s="27" t="n"/>
+      <c r="N3" s="27" t="n"/>
+      <c r="O3" s="27" t="n"/>
+      <c r="P3" s="27" t="n"/>
+      <c r="Q3" s="27" t="n"/>
+      <c r="R3" s="25" t="n"/>
+      <c r="S3" s="25" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="25" t="n"/>
+      <c r="B4" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="25" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" s="25" t="n">
+        <v>12</v>
+      </c>
+      <c r="E4" s="25" t="n">
+        <v>45</v>
+      </c>
+      <c r="F4" s="27" t="n"/>
+      <c r="G4" s="25" t="n">
+        <v>84.94</v>
+      </c>
+      <c r="H4" s="27" t="n"/>
+      <c r="I4" s="27" t="n"/>
+      <c r="J4" s="27" t="n"/>
+      <c r="K4" s="27" t="n"/>
+      <c r="L4" s="27" t="n"/>
+      <c r="M4" s="27" t="n"/>
+      <c r="N4" s="27" t="n"/>
+      <c r="O4" s="27" t="n"/>
+      <c r="P4" s="22" t="n"/>
+      <c r="Q4" s="22" t="n"/>
+      <c r="R4" s="26" t="n"/>
+      <c r="S4" s="26" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25" t="n"/>
+      <c r="C5" s="25" t="n"/>
+      <c r="D5" s="25" t="n"/>
+      <c r="E5" s="25" t="n"/>
+      <c r="F5" s="27" t="n"/>
+      <c r="G5" s="25" t="n"/>
+      <c r="H5" s="27" t="n"/>
+      <c r="I5" s="27" t="n"/>
+      <c r="J5" s="27" t="n"/>
+      <c r="K5" s="27" t="n"/>
+      <c r="L5" s="27" t="n"/>
+      <c r="M5" s="27" t="n"/>
+      <c r="N5" s="27" t="n"/>
+      <c r="O5" s="27" t="n"/>
+      <c r="P5" s="27" t="n"/>
+      <c r="Q5" s="27" t="n"/>
+      <c r="R5" s="26" t="n"/>
+      <c r="S5" s="27" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="25" t="n"/>
+      <c r="B6" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="25" t="n">
+        <v>76</v>
+      </c>
+      <c r="D6" s="25" t="n">
+        <v>34</v>
+      </c>
+      <c r="E6" s="25" t="n">
+        <v>30</v>
+      </c>
+      <c r="F6" s="27" t="n"/>
+      <c r="G6" s="25" t="n">
+        <v>75.27</v>
+      </c>
+      <c r="H6" s="27" t="n"/>
+      <c r="I6" s="27" t="n"/>
+      <c r="J6" s="27" t="n"/>
+      <c r="K6" s="27" t="n"/>
+      <c r="L6" s="27" t="n"/>
+      <c r="M6" s="27" t="n"/>
+      <c r="N6" s="27" t="n"/>
+      <c r="O6" s="27" t="n"/>
+      <c r="P6" s="27" t="n"/>
+      <c r="Q6" s="27" t="n"/>
+      <c r="R6" s="26" t="n"/>
+      <c r="S6" s="26" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="25" t="n"/>
+      <c r="C7" s="25" t="n"/>
+      <c r="D7" s="25" t="n"/>
+      <c r="E7" s="25" t="n"/>
+      <c r="F7" s="27" t="n"/>
+      <c r="G7" s="25" t="n"/>
+      <c r="H7" s="27" t="n"/>
+      <c r="I7" s="27" t="n"/>
+      <c r="J7" s="27" t="n"/>
+      <c r="K7" s="27" t="n"/>
+      <c r="L7" s="27" t="n"/>
+      <c r="M7" s="27" t="n"/>
+      <c r="N7" s="27" t="n"/>
+      <c r="O7" s="27" t="n"/>
+      <c r="P7" s="27" t="n"/>
+      <c r="Q7" s="27" t="n"/>
+      <c r="R7" s="26" t="n"/>
+      <c r="S7" s="26" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="25" t="n"/>
+      <c r="B8" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="25" t="n">
+        <v>144</v>
+      </c>
+      <c r="D8" s="25" t="n">
+        <v>49</v>
+      </c>
+      <c r="E8" s="25" t="n">
+        <v>48</v>
+      </c>
+      <c r="F8" s="27" t="n"/>
+      <c r="G8" s="25" t="n">
+        <v>85.29000000000001</v>
+      </c>
+      <c r="H8" s="27" t="n"/>
+      <c r="I8" s="27" t="n"/>
+      <c r="J8" s="27" t="n"/>
+      <c r="K8" s="27" t="n"/>
+      <c r="L8" s="27" t="n"/>
+      <c r="M8" s="27" t="n"/>
+      <c r="N8" s="27" t="n"/>
+      <c r="O8" s="27" t="n"/>
+      <c r="P8" s="27" t="n"/>
+      <c r="Q8" s="27" t="n"/>
+      <c r="R8" s="26" t="n"/>
+      <c r="S8" s="26" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="25" t="n"/>
+      <c r="C9" s="25" t="n"/>
+      <c r="D9" s="25" t="n"/>
+      <c r="E9" s="25" t="n"/>
+      <c r="F9" s="27" t="n"/>
+      <c r="G9" s="25" t="n"/>
+      <c r="H9" s="27" t="n"/>
+      <c r="I9" s="27" t="n"/>
+      <c r="J9" s="27" t="n"/>
+      <c r="K9" s="27" t="n"/>
+      <c r="L9" s="27" t="n"/>
+      <c r="M9" s="27" t="n"/>
+      <c r="N9" s="27" t="n"/>
+      <c r="O9" s="27" t="n"/>
+      <c r="P9" s="27" t="n"/>
+      <c r="Q9" s="27" t="n"/>
+      <c r="R9" s="26" t="n"/>
+      <c r="S9" s="26" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="25" t="n"/>
+      <c r="B10" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" s="25" t="n">
+        <v>192</v>
+      </c>
+      <c r="D10" s="25" t="n">
+        <v>57</v>
+      </c>
+      <c r="E10" s="25" t="n">
+        <v>32</v>
+      </c>
+      <c r="F10" s="27" t="n"/>
+      <c r="G10" s="25" t="n">
+        <v>92.34</v>
+      </c>
+      <c r="H10" s="27" t="n"/>
+      <c r="I10" s="27" t="n"/>
+      <c r="J10" s="27" t="n"/>
+      <c r="K10" s="27" t="n"/>
+      <c r="L10" s="27" t="n"/>
+      <c r="M10" s="27" t="n"/>
+      <c r="N10" s="27" t="n"/>
+      <c r="O10" s="27" t="n"/>
+      <c r="P10" s="27" t="n"/>
+      <c r="Q10" s="27" t="n"/>
+      <c r="R10" s="26" t="n"/>
+      <c r="S10" s="26" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="25" t="n"/>
+      <c r="C11" s="25" t="n"/>
+      <c r="D11" s="25" t="n"/>
+      <c r="E11" s="25" t="n"/>
+      <c r="F11" s="27" t="n"/>
+      <c r="G11" s="25" t="n"/>
+      <c r="H11" s="27" t="n"/>
+      <c r="I11" s="27" t="n"/>
+      <c r="J11" s="27" t="n"/>
+      <c r="K11" s="27" t="n"/>
+      <c r="L11" s="27" t="n"/>
+      <c r="M11" s="27" t="n"/>
+      <c r="N11" s="27" t="n"/>
+      <c r="O11" s="27" t="n"/>
+      <c r="P11" s="27" t="n"/>
+      <c r="Q11" s="27" t="n"/>
+      <c r="R11" s="26" t="n"/>
+      <c r="S11" s="26" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="25" t="n"/>
+      <c r="B12" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" s="25" t="n">
+        <v>316</v>
+      </c>
+      <c r="D12" s="25" t="n">
+        <v>50</v>
+      </c>
+      <c r="E12" s="25" t="n">
+        <v>47</v>
+      </c>
+      <c r="F12" s="27" t="n"/>
+      <c r="G12" s="25" t="n">
+        <v>63.15</v>
+      </c>
+      <c r="H12" s="27" t="n"/>
+      <c r="I12" s="27" t="n"/>
+      <c r="J12" s="27" t="n"/>
+      <c r="K12" s="27" t="n"/>
+      <c r="L12" s="27" t="n"/>
+      <c r="M12" s="27" t="n"/>
+      <c r="N12" s="27" t="n"/>
+      <c r="O12" s="27" t="n"/>
+      <c r="P12" s="27" t="n"/>
+      <c r="Q12" s="27" t="n"/>
+      <c r="R12" s="26" t="n"/>
+      <c r="S12" s="26" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="B13" s="25" t="n"/>
+      <c r="C13" s="25" t="n"/>
+      <c r="D13" s="25" t="n"/>
+      <c r="E13" s="25" t="n"/>
+      <c r="F13" s="27" t="n"/>
+      <c r="G13" s="25" t="n"/>
+      <c r="H13" s="27" t="n"/>
+      <c r="I13" s="27" t="n"/>
+      <c r="J13" s="27" t="n"/>
+      <c r="K13" s="27" t="n"/>
+      <c r="L13" s="27" t="n"/>
+      <c r="M13" s="27" t="n"/>
+      <c r="N13" s="27" t="n"/>
+      <c r="O13" s="27" t="n"/>
+      <c r="P13" s="27" t="n"/>
+      <c r="Q13" s="27" t="n"/>
+      <c r="R13" s="26" t="n"/>
+      <c r="S13" s="26" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="25" t="n"/>
+      <c r="B14" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" s="25" t="n">
+        <v>254</v>
+      </c>
+      <c r="D14" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" s="25" t="n">
+        <v>29</v>
+      </c>
+      <c r="F14" s="27" t="n"/>
+      <c r="G14" s="25" t="n">
+        <v>86.34999999999999</v>
+      </c>
+      <c r="H14" s="27" t="n"/>
+      <c r="I14" s="27" t="n"/>
+      <c r="J14" s="27" t="n"/>
+      <c r="K14" s="27" t="n"/>
+      <c r="L14" s="27" t="n"/>
+      <c r="M14" s="27" t="n"/>
+      <c r="N14" s="27" t="n"/>
+      <c r="O14" s="27" t="n"/>
+      <c r="P14" s="27" t="n"/>
+      <c r="Q14" s="27" t="n"/>
+      <c r="R14" s="26" t="n"/>
+      <c r="S14" s="26" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" s="25" t="n"/>
+      <c r="C15" s="25" t="n"/>
+      <c r="D15" s="25" t="n"/>
+      <c r="E15" s="25" t="n"/>
+      <c r="F15" s="27" t="n"/>
+      <c r="G15" s="25" t="n"/>
+      <c r="H15" s="27" t="n"/>
+      <c r="I15" s="27" t="n"/>
+      <c r="J15" s="27" t="n"/>
+      <c r="K15" s="27" t="n"/>
+      <c r="L15" s="27" t="n"/>
+      <c r="M15" s="27" t="n"/>
+      <c r="N15" s="27" t="n"/>
+      <c r="O15" s="27" t="n"/>
+      <c r="P15" s="27" t="n"/>
+      <c r="Q15" s="27" t="n"/>
+      <c r="R15" s="26" t="n"/>
+      <c r="S15" s="26" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="25" t="n"/>
+      <c r="B16" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="25" t="n">
+        <v>332</v>
+      </c>
+      <c r="D16" s="25" t="n">
+        <v>25</v>
+      </c>
+      <c r="E16" s="25" t="n">
+        <v>49</v>
+      </c>
+      <c r="F16" s="27" t="n"/>
+      <c r="G16" s="25" t="n">
+        <v>59.85</v>
+      </c>
+      <c r="H16" s="27" t="n"/>
+      <c r="I16" s="27" t="n"/>
+      <c r="J16" s="27" t="n"/>
+      <c r="K16" s="27" t="n"/>
+      <c r="L16" s="27" t="n"/>
+      <c r="M16" s="27" t="n"/>
+      <c r="N16" s="27" t="n"/>
+      <c r="O16" s="27" t="n"/>
+      <c r="P16" s="27" t="n"/>
+      <c r="Q16" s="27" t="n"/>
+      <c r="R16" s="26" t="n"/>
+      <c r="S16" s="26" t="n"/>
+    </row>
+    <row r="17">
+      <c r="G17" s="4" t="n"/>
+      <c r="H17" s="5" t="n"/>
+      <c r="I17" s="5" t="n"/>
+      <c r="L17" s="3" t="n"/>
+      <c r="M17" s="3" t="n"/>
+      <c r="P17" s="23" t="n"/>
+      <c r="Q17" s="24" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1364,711 +2424,706 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="inlineStr">
+      <c r="A1" s="43" t="inlineStr">
         <is>
           <t>▲</t>
         </is>
       </c>
-      <c r="B1" s="30" t="inlineStr">
+      <c r="B1" s="39" t="inlineStr">
         <is>
           <t>☐</t>
         </is>
       </c>
-      <c r="C1" s="31" t="inlineStr">
+      <c r="C1" s="44" t="inlineStr">
         <is>
           <t>Azimut</t>
         </is>
       </c>
-      <c r="D1" s="32" t="n"/>
-      <c r="E1" s="33" t="n"/>
-      <c r="F1" s="30" t="inlineStr">
+      <c r="D1" s="37" t="n"/>
+      <c r="E1" s="38" t="n"/>
+      <c r="F1" s="39" t="inlineStr">
         <is>
           <t>Azimut Decimal</t>
         </is>
       </c>
-      <c r="G1" s="34" t="inlineStr">
+      <c r="G1" s="45" t="inlineStr">
         <is>
           <t>DH</t>
         </is>
       </c>
-      <c r="H1" s="27" t="inlineStr">
+      <c r="H1" s="42" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="I1" s="25" t="inlineStr">
+      <c r="I1" s="31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="J1" s="25" t="inlineStr">
+      <c r="J1" s="31" t="inlineStr">
         <is>
           <t>CY</t>
         </is>
       </c>
-      <c r="K1" s="25" t="inlineStr">
+      <c r="K1" s="31" t="inlineStr">
         <is>
           <t>CX</t>
         </is>
       </c>
-      <c r="L1" s="25" t="inlineStr">
+      <c r="L1" s="31" t="inlineStr">
         <is>
           <t>YC</t>
         </is>
       </c>
-      <c r="M1" s="25" t="inlineStr">
+      <c r="M1" s="31" t="inlineStr">
         <is>
           <t>XC</t>
         </is>
       </c>
-      <c r="N1" s="25" t="inlineStr">
+      <c r="N1" s="31" t="inlineStr">
         <is>
           <t>Norte</t>
         </is>
       </c>
-      <c r="O1" s="25" t="inlineStr">
+      <c r="O1" s="31" t="inlineStr">
         <is>
           <t>Este</t>
         </is>
       </c>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="n"/>
-      <c r="S1" s="1" t="n"/>
+      <c r="P1" s="27" t="n"/>
+      <c r="Q1" s="27" t="n"/>
+      <c r="R1" s="27" t="n"/>
+      <c r="S1" s="27" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="28" t="n"/>
-      <c r="B2" s="26" t="n"/>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="A2" s="34" t="n"/>
+      <c r="B2" s="32" t="n"/>
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Grados</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Minutos </t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>Segundos</t>
         </is>
       </c>
-      <c r="F2" s="26" t="n"/>
-      <c r="G2" s="35" t="n"/>
-      <c r="H2" s="28" t="n"/>
-      <c r="I2" s="26" t="n"/>
-      <c r="J2" s="26" t="n"/>
-      <c r="K2" s="26" t="n"/>
-      <c r="L2" s="26" t="n"/>
-      <c r="M2" s="26" t="n"/>
-      <c r="N2" s="26" t="n"/>
-      <c r="O2" s="26" t="n"/>
-      <c r="P2" s="1" t="n"/>
-      <c r="Q2" s="1" t="n"/>
-      <c r="R2" s="1" t="n"/>
-      <c r="S2" s="1" t="n"/>
+      <c r="F2" s="32" t="n"/>
+      <c r="G2" s="41" t="n"/>
+      <c r="H2" s="34" t="n"/>
+      <c r="I2" s="32" t="n"/>
+      <c r="J2" s="32" t="n"/>
+      <c r="K2" s="32" t="n"/>
+      <c r="L2" s="32" t="n"/>
+      <c r="M2" s="32" t="n"/>
+      <c r="N2" s="32" t="n"/>
+      <c r="O2" s="32" t="n"/>
+      <c r="P2" s="27" t="n"/>
+      <c r="Q2" s="27" t="n"/>
+      <c r="R2" s="27" t="n"/>
+      <c r="S2" s="27" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="26" t="n">
+      <c r="A3" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="n"/>
-      <c r="C3" s="26" t="n"/>
-      <c r="D3" s="26" t="n"/>
-      <c r="E3" s="26" t="n"/>
-      <c r="F3" s="26" t="n"/>
-      <c r="G3" s="26" t="n"/>
-      <c r="H3" s="1" t="n"/>
-      <c r="I3" s="1" t="n"/>
-      <c r="J3" s="1" t="n"/>
-      <c r="K3" s="1" t="n"/>
-      <c r="L3" s="1" t="n"/>
-      <c r="M3" s="1" t="n"/>
-      <c r="N3" s="3" t="n">
+      <c r="B3" s="32" t="n"/>
+      <c r="C3" s="32" t="n"/>
+      <c r="D3" s="32" t="n"/>
+      <c r="E3" s="32" t="n"/>
+      <c r="F3" s="32" t="n"/>
+      <c r="G3" s="32" t="n"/>
+      <c r="H3" s="27" t="n"/>
+      <c r="I3" s="27" t="n"/>
+      <c r="J3" s="27" t="n"/>
+      <c r="K3" s="27" t="n"/>
+      <c r="L3" s="27" t="n"/>
+      <c r="M3" s="27" t="n"/>
+      <c r="N3" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="O3" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="P3" s="1" t="n"/>
-      <c r="Q3" s="1" t="n"/>
-      <c r="R3" s="1" t="n"/>
-      <c r="S3" s="1" t="n"/>
+      <c r="P3" s="27" t="n"/>
+      <c r="Q3" s="27" t="n"/>
+      <c r="R3" s="27" t="n"/>
+      <c r="S3" s="27" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n">
+      <c r="A4" s="27" t="n"/>
+      <c r="B4" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="27" t="n">
         <v>38</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="27" t="n">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="27" t="n">
         <v>45</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="27">
         <f>RADIANS(C4+(D4/60)+(E4/3600))</f>
         <v/>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="27" t="n">
         <v>84.94</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="27">
         <f>COS(F4)*G4</f>
         <v/>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="27">
         <f>SIN(F4)*G4</f>
         <v/>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="27">
         <f>($H$17/$G$17)*G4</f>
         <v/>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="27">
         <f>($I$17/$G$17)*G4</f>
         <v/>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="27">
         <f>H4-J4</f>
         <v/>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="27">
         <f>I4-K4</f>
         <v/>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="27">
         <f>N3+L4</f>
         <v/>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="27">
         <f>O3+M4</f>
         <v/>
       </c>
-      <c r="P4" s="1" t="n"/>
-      <c r="Q4" s="1" t="n"/>
-      <c r="R4" s="1" t="n"/>
-      <c r="S4" s="1" t="n"/>
+      <c r="P4" s="27" t="n"/>
+      <c r="Q4" s="27" t="n"/>
+      <c r="R4" s="27" t="n"/>
+      <c r="S4" s="27" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
-      <c r="D5" s="1" t="n"/>
-      <c r="E5" s="1" t="n"/>
-      <c r="F5" s="1" t="n"/>
-      <c r="G5" s="1" t="n"/>
-      <c r="H5" s="1" t="n"/>
-      <c r="I5" s="1" t="n"/>
-      <c r="J5" s="1" t="n"/>
-      <c r="K5" s="1" t="n"/>
-      <c r="L5" s="1" t="n"/>
-      <c r="M5" s="1" t="n"/>
-      <c r="N5" s="1" t="n"/>
-      <c r="O5" s="1" t="n"/>
-      <c r="P5" s="1" t="n"/>
-      <c r="Q5" s="1" t="n"/>
-      <c r="R5" s="1" t="n"/>
-      <c r="S5" s="1" t="n"/>
+      <c r="B5" s="27" t="n"/>
+      <c r="C5" s="27" t="n"/>
+      <c r="D5" s="27" t="n"/>
+      <c r="E5" s="27" t="n"/>
+      <c r="F5" s="27" t="n"/>
+      <c r="G5" s="27" t="n"/>
+      <c r="H5" s="27" t="n"/>
+      <c r="I5" s="27" t="n"/>
+      <c r="J5" s="27" t="n"/>
+      <c r="K5" s="27" t="n"/>
+      <c r="L5" s="27" t="n"/>
+      <c r="M5" s="27" t="n"/>
+      <c r="N5" s="27" t="n"/>
+      <c r="O5" s="27" t="n"/>
+      <c r="P5" s="27" t="n"/>
+      <c r="Q5" s="27" t="n"/>
+      <c r="R5" s="27" t="n"/>
+      <c r="S5" s="27" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n">
+      <c r="A6" s="27" t="n"/>
+      <c r="B6" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="27" t="n">
         <v>76</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="27" t="n">
         <v>34</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="27" t="n">
         <v>30</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="27">
         <f>RADIANS(C6+(D6/60)+(E6/3600))</f>
         <v/>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="27" t="n">
         <v>75.27</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="27">
         <f>COS(F6)*G6</f>
         <v/>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="27">
         <f>SIN(F6)*G6</f>
         <v/>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="27">
         <f>($H$17/$G$17)*G6</f>
         <v/>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="27">
         <f>($I$17/$G$17)*G6</f>
         <v/>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="27">
         <f>H6-J6</f>
         <v/>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="27">
         <f>I6-K6</f>
         <v/>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="27">
         <f>N4+L6</f>
         <v/>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="27">
         <f>O4+M6</f>
         <v/>
       </c>
-      <c r="P6" s="1" t="n"/>
-      <c r="Q6" s="1" t="n"/>
-      <c r="R6" s="1" t="n"/>
-      <c r="S6" s="1" t="n"/>
+      <c r="P6" s="27" t="n"/>
+      <c r="Q6" s="27" t="n"/>
+      <c r="R6" s="27" t="n"/>
+      <c r="S6" s="27" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="n"/>
-      <c r="D7" s="1" t="n"/>
-      <c r="E7" s="1" t="n"/>
-      <c r="F7" s="1" t="n"/>
-      <c r="G7" s="1" t="n"/>
-      <c r="H7" s="1" t="n"/>
-      <c r="I7" s="1" t="n"/>
-      <c r="J7" s="1" t="n"/>
-      <c r="K7" s="1" t="n"/>
-      <c r="L7" s="1" t="n"/>
-      <c r="M7" s="1" t="n"/>
-      <c r="N7" s="1" t="n"/>
-      <c r="O7" s="1" t="n"/>
-      <c r="P7" s="1" t="n"/>
-      <c r="Q7" s="1" t="n"/>
-      <c r="R7" s="1" t="n"/>
-      <c r="S7" s="1" t="n"/>
+      <c r="B7" s="27" t="n"/>
+      <c r="C7" s="27" t="n"/>
+      <c r="D7" s="27" t="n"/>
+      <c r="E7" s="27" t="n"/>
+      <c r="F7" s="27" t="n"/>
+      <c r="G7" s="27" t="n"/>
+      <c r="H7" s="27" t="n"/>
+      <c r="I7" s="27" t="n"/>
+      <c r="J7" s="27" t="n"/>
+      <c r="K7" s="27" t="n"/>
+      <c r="L7" s="27" t="n"/>
+      <c r="M7" s="27" t="n"/>
+      <c r="N7" s="27" t="n"/>
+      <c r="O7" s="27" t="n"/>
+      <c r="P7" s="27" t="n"/>
+      <c r="Q7" s="27" t="n"/>
+      <c r="R7" s="27" t="n"/>
+      <c r="S7" s="27" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n">
+      <c r="A8" s="27" t="n"/>
+      <c r="B8" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="27" t="n">
         <v>144</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="27" t="n">
         <v>49</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="27" t="n">
         <v>48</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="27">
         <f>RADIANS(C8+(D8/60)+(E8/3600))</f>
         <v/>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="27" t="n">
         <v>85.29000000000001</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="27">
         <f>COS(F8)*G8</f>
         <v/>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="27">
         <f>SIN(F8)*G8</f>
         <v/>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="27">
         <f>($H$17/$G$17)*G8</f>
         <v/>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="27">
         <f>($I$17/$G$17)*G8</f>
         <v/>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="27">
         <f>H8-J8</f>
         <v/>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="27">
         <f>I8-K8</f>
         <v/>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="27">
         <f>N6+L8</f>
         <v/>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="27">
         <f>O6+M8</f>
         <v/>
       </c>
-      <c r="P8" s="1" t="n"/>
-      <c r="Q8" s="1" t="n"/>
-      <c r="R8" s="1" t="n"/>
-      <c r="S8" s="1" t="n"/>
+      <c r="P8" s="27" t="n"/>
+      <c r="Q8" s="27" t="n"/>
+      <c r="R8" s="27" t="n"/>
+      <c r="S8" s="27" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="n"/>
-      <c r="D9" s="1" t="n"/>
-      <c r="E9" s="1" t="n"/>
-      <c r="F9" s="1" t="n"/>
-      <c r="G9" s="1" t="n"/>
-      <c r="H9" s="1" t="n"/>
-      <c r="I9" s="1" t="n"/>
-      <c r="J9" s="1" t="n"/>
-      <c r="K9" s="1" t="n"/>
-      <c r="L9" s="1" t="n"/>
-      <c r="M9" s="1" t="n"/>
-      <c r="N9" s="1" t="n"/>
-      <c r="O9" s="1" t="n"/>
-      <c r="P9" s="1" t="n"/>
-      <c r="Q9" s="1" t="n"/>
-      <c r="R9" s="1" t="n"/>
-      <c r="S9" s="1" t="n"/>
+      <c r="B9" s="27" t="n"/>
+      <c r="C9" s="27" t="n"/>
+      <c r="D9" s="27" t="n"/>
+      <c r="E9" s="27" t="n"/>
+      <c r="F9" s="27" t="n"/>
+      <c r="G9" s="27" t="n"/>
+      <c r="H9" s="27" t="n"/>
+      <c r="I9" s="27" t="n"/>
+      <c r="J9" s="27" t="n"/>
+      <c r="K9" s="27" t="n"/>
+      <c r="L9" s="27" t="n"/>
+      <c r="M9" s="27" t="n"/>
+      <c r="N9" s="27" t="n"/>
+      <c r="O9" s="27" t="n"/>
+      <c r="P9" s="27" t="n"/>
+      <c r="Q9" s="27" t="n"/>
+      <c r="R9" s="27" t="n"/>
+      <c r="S9" s="27" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n">
+      <c r="A10" s="27" t="n"/>
+      <c r="B10" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="27" t="n">
         <v>192</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="27" t="n">
         <v>57</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="27" t="n">
         <v>32</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="27">
         <f>RADIANS(C10+(D10/60)+(E10/3600))</f>
         <v/>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="27" t="n">
         <v>92.34</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="27">
         <f>COS(F10)*G10</f>
         <v/>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="27">
         <f>SIN(F10)*G10</f>
         <v/>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="27">
         <f>($H$17/$G$17)*G10</f>
         <v/>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="27">
         <f>($I$17/$G$17)*G10</f>
         <v/>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="27">
         <f>H10-J10</f>
         <v/>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="27">
         <f>I10-K10</f>
         <v/>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="27">
         <f>N8+L10</f>
         <v/>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="27">
         <f>O8+M10</f>
         <v/>
       </c>
-      <c r="P10" s="1" t="n"/>
-      <c r="Q10" s="1" t="n"/>
-      <c r="R10" s="1" t="n"/>
-      <c r="S10" s="1" t="n"/>
+      <c r="P10" s="27" t="n"/>
+      <c r="Q10" s="27" t="n"/>
+      <c r="R10" s="27" t="n"/>
+      <c r="S10" s="27" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n"/>
-      <c r="D11" s="1" t="n"/>
-      <c r="E11" s="1" t="n"/>
-      <c r="F11" s="1" t="n"/>
-      <c r="G11" s="1" t="n"/>
-      <c r="H11" s="1" t="n"/>
-      <c r="I11" s="1" t="n"/>
-      <c r="J11" s="1" t="n"/>
-      <c r="K11" s="1" t="n"/>
-      <c r="L11" s="1" t="n"/>
-      <c r="M11" s="1" t="n"/>
-      <c r="N11" s="1" t="n"/>
-      <c r="O11" s="1" t="n"/>
-      <c r="P11" s="1" t="n"/>
-      <c r="Q11" s="1" t="n"/>
-      <c r="R11" s="1" t="n"/>
-      <c r="S11" s="1" t="n"/>
+      <c r="B11" s="27" t="n"/>
+      <c r="C11" s="27" t="n"/>
+      <c r="D11" s="27" t="n"/>
+      <c r="E11" s="27" t="n"/>
+      <c r="F11" s="27" t="n"/>
+      <c r="G11" s="27" t="n"/>
+      <c r="H11" s="27" t="n"/>
+      <c r="I11" s="27" t="n"/>
+      <c r="J11" s="27" t="n"/>
+      <c r="K11" s="27" t="n"/>
+      <c r="L11" s="27" t="n"/>
+      <c r="M11" s="27" t="n"/>
+      <c r="N11" s="27" t="n"/>
+      <c r="O11" s="27" t="n"/>
+      <c r="P11" s="27" t="n"/>
+      <c r="Q11" s="27" t="n"/>
+      <c r="R11" s="27" t="n"/>
+      <c r="S11" s="27" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n">
+      <c r="A12" s="27" t="n"/>
+      <c r="B12" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="27" t="n">
         <v>316</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="27" t="n">
         <v>50</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="27" t="n">
         <v>47</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="27">
         <f>RADIANS(C12+(D12/60)+(E12/3600))</f>
         <v/>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="27" t="n">
         <v>63.15</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="27">
         <f>COS(F12)*G12</f>
         <v/>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="27">
         <f>SIN(F12)*G12</f>
         <v/>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="27">
         <f>($H$17/$G$17)*G12</f>
         <v/>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="27">
         <f>($I$17/$G$17)*G12</f>
         <v/>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="27">
         <f>H12-J12</f>
         <v/>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="27">
         <f>I12-K12</f>
         <v/>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="27">
         <f>N10+L12</f>
         <v/>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="27">
         <f>O10+M12</f>
         <v/>
       </c>
-      <c r="P12" s="1" t="n"/>
-      <c r="Q12" s="1" t="n"/>
-      <c r="R12" s="1" t="n"/>
-      <c r="S12" s="1" t="n"/>
+      <c r="P12" s="27" t="n"/>
+      <c r="Q12" s="27" t="n"/>
+      <c r="R12" s="27" t="n"/>
+      <c r="S12" s="27" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="n"/>
-      <c r="D13" s="1" t="n"/>
-      <c r="E13" s="1" t="n"/>
-      <c r="F13" s="1" t="n"/>
-      <c r="G13" s="1" t="n"/>
-      <c r="H13" s="1" t="n"/>
-      <c r="I13" s="1" t="n"/>
-      <c r="J13" s="1" t="n"/>
-      <c r="K13" s="1" t="n"/>
-      <c r="L13" s="1" t="n"/>
-      <c r="M13" s="1" t="n"/>
-      <c r="N13" s="1" t="n"/>
-      <c r="O13" s="1" t="n"/>
-      <c r="P13" s="1" t="n"/>
-      <c r="Q13" s="1" t="n"/>
-      <c r="R13" s="1" t="n"/>
-      <c r="S13" s="1" t="n"/>
+      <c r="B13" s="27" t="n"/>
+      <c r="C13" s="27" t="n"/>
+      <c r="D13" s="27" t="n"/>
+      <c r="E13" s="27" t="n"/>
+      <c r="F13" s="27" t="n"/>
+      <c r="G13" s="27" t="n"/>
+      <c r="H13" s="27" t="n"/>
+      <c r="I13" s="27" t="n"/>
+      <c r="J13" s="27" t="n"/>
+      <c r="K13" s="27" t="n"/>
+      <c r="L13" s="27" t="n"/>
+      <c r="M13" s="27" t="n"/>
+      <c r="N13" s="27" t="n"/>
+      <c r="O13" s="27" t="n"/>
+      <c r="P13" s="27" t="n"/>
+      <c r="Q13" s="27" t="n"/>
+      <c r="R13" s="27" t="n"/>
+      <c r="S13" s="27" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n">
+      <c r="A14" s="27" t="n"/>
+      <c r="B14" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="27" t="n">
         <v>254</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="27" t="n">
         <v>29</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="27">
         <f>RADIANS(C14+(D14/60)+(E14/3600))</f>
         <v/>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="27" t="n">
         <v>86.34999999999999</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="27">
         <f>COS(F14)*G14</f>
         <v/>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="27">
         <f>SIN(F14)*G14</f>
         <v/>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="27">
         <f>($H$17/$G$17)*G14</f>
         <v/>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="27">
         <f>($I$17/$G$17)*G14</f>
         <v/>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="27">
         <f>H14-J14</f>
         <v/>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="27">
         <f>I14-K14</f>
         <v/>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="27">
         <f>N12+L14</f>
         <v/>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="27">
         <f>O12+M14</f>
         <v/>
       </c>
-      <c r="P14" s="1" t="n"/>
-      <c r="Q14" s="1" t="n"/>
-      <c r="R14" s="1" t="n"/>
-      <c r="S14" s="1" t="n"/>
+      <c r="P14" s="27" t="n"/>
+      <c r="Q14" s="27" t="n"/>
+      <c r="R14" s="27" t="n"/>
+      <c r="S14" s="27" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n"/>
-      <c r="D15" s="1" t="n"/>
-      <c r="E15" s="1" t="n"/>
-      <c r="F15" s="1" t="n"/>
-      <c r="G15" s="1" t="n"/>
-      <c r="H15" s="1" t="n"/>
-      <c r="I15" s="1" t="n"/>
-      <c r="J15" s="1" t="n"/>
-      <c r="K15" s="1" t="n"/>
-      <c r="L15" s="1" t="n"/>
-      <c r="M15" s="1" t="n"/>
-      <c r="N15" s="1" t="n"/>
-      <c r="O15" s="1" t="n"/>
-      <c r="P15" s="1" t="n"/>
-      <c r="Q15" s="1" t="n"/>
-      <c r="R15" s="1" t="n"/>
-      <c r="S15" s="1" t="n"/>
+      <c r="B15" s="27" t="n"/>
+      <c r="C15" s="27" t="n"/>
+      <c r="D15" s="27" t="n"/>
+      <c r="E15" s="27" t="n"/>
+      <c r="F15" s="27" t="n"/>
+      <c r="G15" s="27" t="n"/>
+      <c r="H15" s="27" t="n"/>
+      <c r="I15" s="27" t="n"/>
+      <c r="J15" s="27" t="n"/>
+      <c r="K15" s="27" t="n"/>
+      <c r="L15" s="27" t="n"/>
+      <c r="M15" s="27" t="n"/>
+      <c r="N15" s="27" t="n"/>
+      <c r="O15" s="27" t="n"/>
+      <c r="P15" s="27" t="n"/>
+      <c r="Q15" s="27" t="n"/>
+      <c r="R15" s="27" t="n"/>
+      <c r="S15" s="27" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="n">
+      <c r="A16" s="27" t="n"/>
+      <c r="B16" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="27" t="n">
         <v>332</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="27" t="n">
         <v>25</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="27" t="n">
         <v>49</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="27">
         <f>RADIANS(C16+(D16/60)+(E16/3600))</f>
         <v/>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="27" t="n">
         <v>59.85</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="27">
         <f>COS(F16)*G16</f>
         <v/>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="27">
         <f>SIN(F16)*G16</f>
         <v/>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="27">
         <f>($H$17/$G$17)*G16</f>
         <v/>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="27">
         <f>($I$17/$G$17)*G16</f>
         <v/>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="27">
         <f>H16-J16</f>
         <v/>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="27">
         <f>I16-K16</f>
         <v/>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="2">
         <f>N14+L16</f>
         <v/>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="2">
         <f>O14+M16</f>
         <v/>
       </c>
-      <c r="P16" s="1" t="n"/>
-      <c r="Q16" s="1" t="n"/>
-      <c r="R16" s="1" t="n"/>
-      <c r="S16" s="1" t="n"/>
+      <c r="P16" s="27" t="n"/>
+      <c r="Q16" s="27" t="n"/>
+      <c r="R16" s="27" t="n"/>
+      <c r="S16" s="27" t="n"/>
     </row>
     <row r="17">
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <f>SUM(G3:G16)</f>
         <v/>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <f>SUM(H3:H16)</f>
         <v/>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <f>SUM(I3:I16)</f>
         <v/>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <f>SUM(L4:L16)</f>
         <v/>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <f>SUM(M4:M16)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="H1:H2"/>
@@ -2077,542 +3132,13 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Q17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="inlineStr">
-        <is>
-          <t>▲</t>
-        </is>
-      </c>
-      <c r="B1" s="12" t="inlineStr">
-        <is>
-          <t>☐</t>
-        </is>
-      </c>
-      <c r="C1" s="12" t="inlineStr">
-        <is>
-          <t>Azimut</t>
-        </is>
-      </c>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="7" t="inlineStr">
-        <is>
-          <t>Azimut Decimal</t>
-        </is>
-      </c>
-      <c r="G1" s="12" t="inlineStr">
-        <is>
-          <t>DH</t>
-        </is>
-      </c>
-      <c r="H1" s="7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I1" s="36" t="inlineStr">
-        <is>
-          <t>VY</t>
-        </is>
-      </c>
-      <c r="J1" s="7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K1" s="36" t="inlineStr">
-        <is>
-          <t>VX</t>
-        </is>
-      </c>
-      <c r="L1" s="36" t="inlineStr">
-        <is>
-          <t>CY</t>
-        </is>
-      </c>
-      <c r="M1" s="36" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="N1" s="36" t="inlineStr">
-        <is>
-          <t>YC</t>
-        </is>
-      </c>
-      <c r="O1" s="36" t="inlineStr">
-        <is>
-          <t>XC</t>
-        </is>
-      </c>
-      <c r="P1" s="12" t="inlineStr">
-        <is>
-          <t>Norte</t>
-        </is>
-      </c>
-      <c r="Q1" s="17" t="inlineStr">
-        <is>
-          <t>Este</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="13" t="n"/>
-      <c r="B2" s="14" t="n"/>
-      <c r="C2" s="14" t="inlineStr">
-        <is>
-          <t>Grados</t>
-        </is>
-      </c>
-      <c r="D2" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Minutos </t>
-        </is>
-      </c>
-      <c r="E2" s="14" t="inlineStr">
-        <is>
-          <t>Segundos</t>
-        </is>
-      </c>
-      <c r="F2" s="8" t="n"/>
-      <c r="G2" s="14" t="n"/>
-      <c r="H2" s="8" t="n"/>
-      <c r="I2" s="37" t="n"/>
-      <c r="J2" s="8" t="n"/>
-      <c r="K2" s="37" t="n"/>
-      <c r="L2" s="37" t="n"/>
-      <c r="M2" s="37" t="n"/>
-      <c r="N2" s="37" t="n"/>
-      <c r="O2" s="37" t="n"/>
-      <c r="P2" s="14" t="n"/>
-      <c r="Q2" s="18" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15" t="n"/>
-      <c r="C3" s="15" t="n"/>
-      <c r="D3" s="15" t="n"/>
-      <c r="E3" s="15" t="n"/>
-      <c r="F3" s="9" t="n"/>
-      <c r="G3" s="15" t="n"/>
-      <c r="H3" s="9" t="n"/>
-      <c r="I3" s="9" t="n"/>
-      <c r="J3" s="9" t="n"/>
-      <c r="K3" s="9" t="n"/>
-      <c r="L3" s="9" t="n"/>
-      <c r="M3" s="9" t="n"/>
-      <c r="N3" s="9" t="n"/>
-      <c r="O3" s="9" t="n"/>
-      <c r="P3" s="15" t="n"/>
-      <c r="Q3" s="15" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="16" t="n"/>
-      <c r="B4" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" s="16" t="n">
-        <v>38</v>
-      </c>
-      <c r="D4" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="E4" s="16" t="n">
-        <v>45</v>
-      </c>
-      <c r="F4" s="10" t="n"/>
-      <c r="G4" s="16" t="n">
-        <v>84.94</v>
-      </c>
-      <c r="H4" s="10" t="n"/>
-      <c r="I4" s="10" t="n"/>
-      <c r="J4" s="10" t="n"/>
-      <c r="K4" s="10" t="n"/>
-      <c r="L4" s="10" t="n"/>
-      <c r="M4" s="10" t="n"/>
-      <c r="N4" s="10" t="n"/>
-      <c r="O4" s="10" t="n"/>
-      <c r="P4" s="16" t="n">
-        <v>2066.735</v>
-      </c>
-      <c r="Q4" s="16" t="n">
-        <v>2052.51</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="16" t="n"/>
-      <c r="C5" s="16" t="n"/>
-      <c r="D5" s="16" t="n"/>
-      <c r="E5" s="16" t="n"/>
-      <c r="F5" s="10" t="n"/>
-      <c r="G5" s="16" t="n"/>
-      <c r="H5" s="10" t="n"/>
-      <c r="I5" s="10" t="n"/>
-      <c r="J5" s="10" t="n"/>
-      <c r="K5" s="10" t="n"/>
-      <c r="L5" s="10" t="n"/>
-      <c r="M5" s="10" t="n"/>
-      <c r="N5" s="10" t="n"/>
-      <c r="O5" s="10" t="n"/>
-      <c r="P5" s="16" t="n"/>
-      <c r="Q5" s="16" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="16" t="n"/>
-      <c r="B6" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" s="16" t="n">
-        <v>76</v>
-      </c>
-      <c r="D6" s="16" t="n">
-        <v>34</v>
-      </c>
-      <c r="E6" s="16" t="n">
-        <v>30</v>
-      </c>
-      <c r="F6" s="10" t="n"/>
-      <c r="G6" s="16" t="n">
-        <v>75.27</v>
-      </c>
-      <c r="H6" s="10" t="n"/>
-      <c r="I6" s="10" t="n"/>
-      <c r="J6" s="10" t="n"/>
-      <c r="K6" s="10" t="n"/>
-      <c r="L6" s="10" t="n"/>
-      <c r="M6" s="10" t="n"/>
-      <c r="N6" s="10" t="n"/>
-      <c r="O6" s="10" t="n"/>
-      <c r="P6" s="16" t="n">
-        <v>2084.246</v>
-      </c>
-      <c r="Q6" s="16" t="n">
-        <v>2125.705</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="16" t="n"/>
-      <c r="C7" s="16" t="n"/>
-      <c r="D7" s="16" t="n"/>
-      <c r="E7" s="16" t="n"/>
-      <c r="F7" s="10" t="n"/>
-      <c r="G7" s="16" t="n"/>
-      <c r="H7" s="10" t="n"/>
-      <c r="I7" s="10" t="n"/>
-      <c r="J7" s="10" t="n"/>
-      <c r="K7" s="10" t="n"/>
-      <c r="L7" s="10" t="n"/>
-      <c r="M7" s="10" t="n"/>
-      <c r="N7" s="10" t="n"/>
-      <c r="O7" s="10" t="n"/>
-      <c r="P7" s="16" t="n"/>
-      <c r="Q7" s="16" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="16" t="n"/>
-      <c r="B8" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" s="16" t="n">
-        <v>144</v>
-      </c>
-      <c r="D8" s="16" t="n">
-        <v>49</v>
-      </c>
-      <c r="E8" s="16" t="n">
-        <v>48</v>
-      </c>
-      <c r="F8" s="10" t="n"/>
-      <c r="G8" s="16" t="n">
-        <v>85.29000000000001</v>
-      </c>
-      <c r="H8" s="10" t="n"/>
-      <c r="I8" s="10" t="n"/>
-      <c r="J8" s="10" t="n"/>
-      <c r="K8" s="10" t="n"/>
-      <c r="L8" s="10" t="n"/>
-      <c r="M8" s="10" t="n"/>
-      <c r="N8" s="10" t="n"/>
-      <c r="O8" s="10" t="n"/>
-      <c r="P8" s="16" t="n">
-        <v>2014.512</v>
-      </c>
-      <c r="Q8" s="16" t="n">
-        <v>2174.855</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" s="16" t="n"/>
-      <c r="C9" s="16" t="n"/>
-      <c r="D9" s="16" t="n"/>
-      <c r="E9" s="16" t="n"/>
-      <c r="F9" s="10" t="n"/>
-      <c r="G9" s="16" t="n"/>
-      <c r="H9" s="10" t="n"/>
-      <c r="I9" s="10" t="n"/>
-      <c r="J9" s="10" t="n"/>
-      <c r="K9" s="10" t="n"/>
-      <c r="L9" s="10" t="n"/>
-      <c r="M9" s="10" t="n"/>
-      <c r="N9" s="10" t="n"/>
-      <c r="O9" s="10" t="n"/>
-      <c r="P9" s="16" t="n"/>
-      <c r="Q9" s="16" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="16" t="n"/>
-      <c r="B10" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" s="16" t="n">
-        <v>192</v>
-      </c>
-      <c r="D10" s="16" t="n">
-        <v>57</v>
-      </c>
-      <c r="E10" s="16" t="n">
-        <v>32</v>
-      </c>
-      <c r="F10" s="10" t="n"/>
-      <c r="G10" s="16" t="n">
-        <v>92.34</v>
-      </c>
-      <c r="H10" s="10" t="n"/>
-      <c r="I10" s="10" t="n"/>
-      <c r="J10" s="10" t="n"/>
-      <c r="K10" s="10" t="n"/>
-      <c r="L10" s="10" t="n"/>
-      <c r="M10" s="10" t="n"/>
-      <c r="N10" s="10" t="n"/>
-      <c r="O10" s="10" t="n"/>
-      <c r="P10" s="16" t="n">
-        <v>1924.527</v>
-      </c>
-      <c r="Q10" s="16" t="n">
-        <v>2154.077</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" s="16" t="n"/>
-      <c r="C11" s="16" t="n"/>
-      <c r="D11" s="16" t="n"/>
-      <c r="E11" s="16" t="n"/>
-      <c r="F11" s="10" t="n"/>
-      <c r="G11" s="16" t="n"/>
-      <c r="H11" s="10" t="n"/>
-      <c r="I11" s="10" t="n"/>
-      <c r="J11" s="10" t="n"/>
-      <c r="K11" s="10" t="n"/>
-      <c r="L11" s="10" t="n"/>
-      <c r="M11" s="10" t="n"/>
-      <c r="N11" s="10" t="n"/>
-      <c r="O11" s="10" t="n"/>
-      <c r="P11" s="16" t="n"/>
-      <c r="Q11" s="16" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="16" t="n"/>
-      <c r="B12" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" s="16" t="n">
-        <v>316</v>
-      </c>
-      <c r="D12" s="16" t="n">
-        <v>50</v>
-      </c>
-      <c r="E12" s="16" t="n">
-        <v>47</v>
-      </c>
-      <c r="F12" s="10" t="n"/>
-      <c r="G12" s="16" t="n">
-        <v>63.15</v>
-      </c>
-      <c r="H12" s="10" t="n"/>
-      <c r="I12" s="10" t="n"/>
-      <c r="J12" s="10" t="n"/>
-      <c r="K12" s="10" t="n"/>
-      <c r="L12" s="10" t="n"/>
-      <c r="M12" s="10" t="n"/>
-      <c r="N12" s="10" t="n"/>
-      <c r="O12" s="10" t="n"/>
-      <c r="P12" s="16" t="n">
-        <v>1970.595</v>
-      </c>
-      <c r="Q12" s="16" t="n">
-        <v>2110.911</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="B13" s="16" t="n"/>
-      <c r="C13" s="16" t="n"/>
-      <c r="D13" s="16" t="n"/>
-      <c r="E13" s="16" t="n"/>
-      <c r="F13" s="10" t="n"/>
-      <c r="G13" s="16" t="n"/>
-      <c r="H13" s="10" t="n"/>
-      <c r="I13" s="10" t="n"/>
-      <c r="J13" s="10" t="n"/>
-      <c r="K13" s="10" t="n"/>
-      <c r="L13" s="10" t="n"/>
-      <c r="M13" s="10" t="n"/>
-      <c r="N13" s="10" t="n"/>
-      <c r="O13" s="10" t="n"/>
-      <c r="P13" s="16" t="n"/>
-      <c r="Q13" s="16" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="16" t="n"/>
-      <c r="B14" s="16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" s="16" t="n">
-        <v>254</v>
-      </c>
-      <c r="D14" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="E14" s="16" t="n">
-        <v>29</v>
-      </c>
-      <c r="F14" s="10" t="n"/>
-      <c r="G14" s="16" t="n">
-        <v>86.34999999999999</v>
-      </c>
-      <c r="H14" s="10" t="n"/>
-      <c r="I14" s="10" t="n"/>
-      <c r="J14" s="10" t="n"/>
-      <c r="K14" s="10" t="n"/>
-      <c r="L14" s="10" t="n"/>
-      <c r="M14" s="10" t="n"/>
-      <c r="N14" s="10" t="n"/>
-      <c r="O14" s="10" t="n"/>
-      <c r="P14" s="16" t="n">
-        <v>1946.947</v>
-      </c>
-      <c r="Q14" s="16" t="n">
-        <v>2027.849</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="16" t="n">
-        <v>7</v>
-      </c>
-      <c r="B15" s="16" t="n"/>
-      <c r="C15" s="16" t="n"/>
-      <c r="D15" s="16" t="n"/>
-      <c r="E15" s="16" t="n"/>
-      <c r="F15" s="10" t="n"/>
-      <c r="G15" s="16" t="n"/>
-      <c r="H15" s="10" t="n"/>
-      <c r="I15" s="10" t="n"/>
-      <c r="J15" s="10" t="n"/>
-      <c r="K15" s="10" t="n"/>
-      <c r="L15" s="10" t="n"/>
-      <c r="M15" s="10" t="n"/>
-      <c r="N15" s="10" t="n"/>
-      <c r="O15" s="10" t="n"/>
-      <c r="P15" s="16" t="n"/>
-      <c r="Q15" s="16" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="16" t="n"/>
-      <c r="B16" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="16" t="n">
-        <v>332</v>
-      </c>
-      <c r="D16" s="16" t="n">
-        <v>25</v>
-      </c>
-      <c r="E16" s="16" t="n">
-        <v>49</v>
-      </c>
-      <c r="F16" s="10" t="n"/>
-      <c r="G16" s="16" t="n">
-        <v>59.85</v>
-      </c>
-      <c r="H16" s="10" t="n"/>
-      <c r="I16" s="10" t="n"/>
-      <c r="J16" s="10" t="n"/>
-      <c r="K16" s="10" t="n"/>
-      <c r="L16" s="10" t="n"/>
-      <c r="M16" s="10" t="n"/>
-      <c r="N16" s="10" t="n"/>
-      <c r="O16" s="10" t="n"/>
-      <c r="P16" s="16" t="n">
-        <v>2000</v>
-      </c>
-      <c r="Q16" s="16" t="n">
-        <v>2000.178</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="16" t="n"/>
-      <c r="B17" s="16" t="n"/>
-      <c r="C17" s="16" t="n"/>
-      <c r="D17" s="16" t="n"/>
-      <c r="E17" s="16" t="n"/>
-      <c r="F17" s="10" t="n"/>
-      <c r="G17" s="3" t="n"/>
-      <c r="H17" s="3" t="n"/>
-      <c r="I17" s="3" t="n"/>
-      <c r="J17" s="3" t="n"/>
-      <c r="K17" s="3" t="n"/>
-      <c r="L17" s="10" t="n"/>
-      <c r="M17" s="10" t="n"/>
-      <c r="N17" s="10" t="n"/>
-      <c r="O17" s="10" t="n"/>
-      <c r="P17" s="16" t="n"/>
-      <c r="Q17" s="16" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Torres Poveda\Documents\INGENIERIA DE SOFTWARE\Ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF04FAB0-6F18-49D3-BDCD-B029B0F29D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB14717-A043-442A-89E3-5B32E176FA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3195" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brujula" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,14 +174,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -389,11 +383,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -402,31 +396,24 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -435,33 +422,18 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -479,22 +451,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -844,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,21 +915,21 @@
       <c r="O3" s="14"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19">
         <v>2</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="19">
         <v>38</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="19">
         <v>12</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="19">
         <v>45</v>
       </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="25">
+      <c r="G4" s="19">
         <v>84.94</v>
       </c>
       <c r="H4" s="9"/>
@@ -965,44 +938,44 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="19">
         <v>2</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="25"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19">
         <v>3</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="19">
         <v>76</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="19">
         <v>34</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="19">
         <v>30</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="25">
+      <c r="G6" s="19">
         <v>75.27</v>
       </c>
       <c r="H6" s="9"/>
@@ -1011,44 +984,44 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="19">
         <v>3</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="25"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19">
         <v>4</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="19">
         <v>144</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="19">
         <v>49</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="19">
         <v>48</v>
       </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="25">
+      <c r="G8" s="19">
         <v>85.29</v>
       </c>
       <c r="H8" s="9"/>
@@ -1057,44 +1030,44 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="A9" s="19">
         <v>4</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="25"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19">
         <v>5</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="19">
         <v>192</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="19">
         <v>57</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="19">
         <v>32</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="25">
+      <c r="G10" s="19">
         <v>92.34</v>
       </c>
       <c r="H10" s="9"/>
@@ -1103,44 +1076,44 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+      <c r="A11" s="19">
         <v>5</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="25"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19">
         <v>6</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="19">
         <v>316</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="19">
         <v>50</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="19">
         <v>47</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="25">
+      <c r="G12" s="19">
         <v>63.15</v>
       </c>
       <c r="H12" s="9"/>
@@ -1149,44 +1122,44 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
+      <c r="A13" s="19">
         <v>6</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="25"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19">
         <v>7</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="19">
         <v>254</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="19">
         <v>6</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="19">
         <v>29</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="25">
+      <c r="G14" s="19">
         <v>86.35</v>
       </c>
       <c r="H14" s="9"/>
@@ -1195,44 +1168,44 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
+      <c r="A15" s="19">
         <v>7</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="25"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25">
-        <v>1</v>
-      </c>
-      <c r="C16" s="25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19">
+        <v>8</v>
+      </c>
+      <c r="C16" s="19">
         <v>332</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="19">
         <v>25</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="19">
         <v>49</v>
       </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="25">
+      <c r="G16" s="19">
         <v>59.85</v>
       </c>
       <c r="H16" s="9"/>
@@ -1245,25 +1218,71 @@
       <c r="O16" s="19"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="A17" s="19">
+        <v>8</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="17"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="9">
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19">
+        <v>1</v>
+      </c>
+      <c r="C18" s="19">
+        <v>332</v>
+      </c>
+      <c r="D18" s="19">
+        <v>25</v>
+      </c>
+      <c r="E18" s="19">
+        <v>49</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="19">
+        <v>59.85</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8">
         <v>0</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M19" s="27">
         <v>0</v>
       </c>
-      <c r="N17" s="20"/>
-      <c r="O17" s="21"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1273,13 +1292,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:Q16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="15" width="0.140625" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
@@ -1302,25 +1325,25 @@
       <c r="H1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="30" t="s">
         <v>17</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="30" t="s">
         <v>23</v>
       </c>
       <c r="P1" s="11" t="s">
@@ -1345,13 +1368,13 @@
       <c r="F2" s="7"/>
       <c r="G2" s="13"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="30"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
       <c r="P2" s="13"/>
       <c r="Q2" s="16"/>
     </row>
@@ -1377,21 +1400,21 @@
       <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19">
         <v>2</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="19">
         <v>38</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="19">
         <v>12</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="19">
         <v>45</v>
       </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="25">
+      <c r="G4" s="19">
         <v>84.94</v>
       </c>
       <c r="H4" s="9"/>
@@ -1402,19 +1425,19 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="19">
         <v>2</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="25"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -1423,25 +1446,25 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19">
         <v>3</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="19">
         <v>76</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="19">
         <v>34</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="19">
         <v>30</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="25">
+      <c r="G6" s="19">
         <v>75.27</v>
       </c>
       <c r="H6" s="9"/>
@@ -1452,19 +1475,19 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="19">
         <v>3</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="25"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -1473,25 +1496,25 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19">
         <v>4</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="19">
         <v>144</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="19">
         <v>49</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="19">
         <v>48</v>
       </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="25">
+      <c r="G8" s="19">
         <v>85.29</v>
       </c>
       <c r="H8" s="9"/>
@@ -1502,19 +1525,19 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="A9" s="19">
         <v>4</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="25"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1523,25 +1546,25 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19">
         <v>5</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="19">
         <v>192</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="19">
         <v>57</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="19">
         <v>32</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="25">
+      <c r="G10" s="19">
         <v>92.34</v>
       </c>
       <c r="H10" s="9"/>
@@ -1552,19 +1575,19 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+      <c r="A11" s="19">
         <v>5</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="25"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1573,25 +1596,25 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19">
         <v>6</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="19">
         <v>316</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="19">
         <v>50</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="19">
         <v>47</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="25">
+      <c r="G12" s="19">
         <v>63.15</v>
       </c>
       <c r="H12" s="9"/>
@@ -1602,19 +1625,19 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
+      <c r="A13" s="19">
         <v>6</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="25"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1623,25 +1646,25 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19">
         <v>7</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="19">
         <v>254</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="19">
         <v>6</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="19">
         <v>29</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="25">
+      <c r="G14" s="19">
         <v>86.35</v>
       </c>
       <c r="H14" s="9"/>
@@ -1652,19 +1675,19 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
+      <c r="A15" s="19">
         <v>7</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="25"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1673,56 +1696,75 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17">
         <v>1</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="17">
         <v>332</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="17">
         <v>25</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="17">
         <v>49</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="25">
+      <c r="F16" s="23"/>
+      <c r="G16" s="17">
         <v>59.85</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1739,72 +1781,72 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S4" sqref="R4:S16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="13" t="s">
         <v>13</v>
       </c>
@@ -1814,20 +1856,20 @@
       <c r="E2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
@@ -1837,387 +1879,437 @@
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="28"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19">
         <v>2</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="19">
         <v>38</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="19">
         <v>12</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="19">
         <v>45</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="25">
+      <c r="F4" s="21"/>
+      <c r="G4" s="19">
         <v>84.94</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="19">
         <v>2</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="27"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19">
         <v>3</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="19">
         <v>76</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="19">
         <v>34</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="19">
         <v>30</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="25">
+      <c r="F6" s="21"/>
+      <c r="G6" s="19">
         <v>75.27</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="19">
         <v>3</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19">
         <v>4</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="19">
         <v>144</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="19">
         <v>49</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="19">
         <v>48</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="25">
+      <c r="F8" s="21"/>
+      <c r="G8" s="19">
         <v>85.29</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="A9" s="19">
         <v>4</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19">
         <v>5</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="19">
         <v>192</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="19">
         <v>57</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="19">
         <v>32</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="25">
+      <c r="F10" s="21"/>
+      <c r="G10" s="19">
         <v>92.34</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+      <c r="A11" s="19">
         <v>5</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19">
         <v>6</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="19">
         <v>316</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="19">
         <v>50</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="19">
         <v>47</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="25">
+      <c r="F12" s="21"/>
+      <c r="G12" s="19">
         <v>63.15</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
+      <c r="A13" s="19">
         <v>6</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19">
         <v>7</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="19">
         <v>254</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="19">
         <v>6</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="19">
         <v>29</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="25">
+      <c r="F14" s="21"/>
+      <c r="G14" s="19">
         <v>86.35</v>
       </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
+      <c r="A15" s="19">
         <v>7</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17">
+        <v>8</v>
+      </c>
+      <c r="C16" s="17">
+        <v>332</v>
+      </c>
+      <c r="D16" s="17">
+        <v>25</v>
+      </c>
+      <c r="E16" s="17">
+        <v>49</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="17">
+        <v>59.85</v>
+      </c>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>8</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17">
         <v>1</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C18" s="17">
         <v>332</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D18" s="17">
         <v>25</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E18" s="17">
         <v>49</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="25">
+      <c r="F18" s="28"/>
+      <c r="G18" s="17">
         <v>59.85</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-    </row>
-    <row r="17" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="24"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2230,11 +2322,6 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2260,55 +2347,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2318,576 +2405,576 @@
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
+      <c r="A3" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
       <c r="N3" s="2">
         <v>2000</v>
       </c>
       <c r="O3" s="2">
         <v>2000</v>
       </c>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21">
         <v>2</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="21">
         <v>38</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="21">
         <v>12</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="21">
         <v>45</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="21">
         <f>RADIANS(C4+(D4/60)+(E4/3600))</f>
         <v>0.66693394041833332</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="21">
         <v>84.94</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="21">
         <f>COS(F4)*G4</f>
         <v>66.739223171273196</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="21">
         <f>SIN(F4)*G4</f>
         <v>52.542170591773143</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="21">
         <f>($H$17/$G$17)*G4</f>
         <v>-2.3001967087918204E-3</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="21">
         <f>($I$17/$G$17)*G4</f>
         <v>3.6261976805391657E-2</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="21">
         <f>H4-J4</f>
         <v>66.741523367981983</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="21">
         <f>I4-K4</f>
         <v>52.505908614967751</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="21">
         <f>N3+L4</f>
         <v>2066.7415233679822</v>
       </c>
-      <c r="O4" s="27">
+      <c r="O4" s="21">
         <f>O3+M4</f>
         <v>2052.5059086149677</v>
       </c>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
+      <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21">
         <v>3</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="21">
         <v>76</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="21">
         <v>34</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="21">
         <v>30</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="21">
         <f>RADIANS(C6+(D6/60)+(E6/3600))</f>
         <v>1.336485874714658</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="21">
         <v>75.27</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="21">
         <f>COS(F6)*G6</f>
         <v>17.475611653108537</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="21">
         <f>SIN(F6)*G6</f>
         <v>73.21322214839158</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="21">
         <f>($H$17/$G$17)*G6</f>
         <v>-2.0383306601219719E-3</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="21">
         <f>($I$17/$G$17)*G6</f>
         <v>3.2133729622578641E-2</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="21">
         <f>H6-J6</f>
         <v>17.477649983768657</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="21">
         <f>I6-K6</f>
         <v>73.181088418769008</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="21">
         <f>N4+L6</f>
         <v>2084.2191733517507</v>
       </c>
-      <c r="O6" s="27">
+      <c r="O6" s="21">
         <f>O4+M6</f>
         <v>2125.6869970337366</v>
       </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
+      <c r="A7" s="21">
         <v>3</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21">
         <v>4</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="21">
         <v>144</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="21">
         <v>49</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="21">
         <v>48</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="21">
         <f>RADIANS(C8+(D8/60)+(E8/3600))</f>
         <v>2.5277603556633874</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="21">
         <v>85.29</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="21">
         <f>COS(F8)*G8</f>
         <v>-69.720020988540355</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="21">
         <f>SIN(F8)*G8</f>
         <v>49.127413664444958</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="21">
         <f>($H$17/$G$17)*G8</f>
         <v>-2.3096747974199949E-3</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="21">
         <f>($I$17/$G$17)*G8</f>
         <v>3.6411396300116021E-2</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="21">
         <f>H8-J8</f>
         <v>-69.717711313742939</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="21">
         <f>I8-K8</f>
         <v>49.091002268144841</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="21">
         <f>N6+L8</f>
         <v>2014.5014620380077</v>
       </c>
-      <c r="O8" s="27">
+      <c r="O8" s="21">
         <f>O6+M8</f>
         <v>2174.7779993018812</v>
       </c>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
+      <c r="A9" s="21">
         <v>4</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21">
         <v>5</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="21">
         <v>192</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="21">
         <v>57</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="21">
         <v>32</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="21">
         <f>RADIANS(C10+(D10/60)+(E10/3600))</f>
         <v>3.3677679321010139</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="21">
         <v>92.34</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="21">
         <f>COS(F10)*G10</f>
         <v>-89.988213019595378</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="21">
         <f>SIN(F10)*G10</f>
         <v>-20.707416969287269</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="21">
         <f>($H$17/$G$17)*G10</f>
         <v>-2.5005905826446513E-3</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="21">
         <f>($I$17/$G$17)*G10</f>
         <v>3.9421131836706681E-2</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="21">
         <f>H10-J10</f>
         <v>-89.985712429012736</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="21">
         <f>I10-K10</f>
         <v>-20.746838101123977</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="21">
         <f>N8+L10</f>
         <v>1924.5157496089951</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="21">
         <f>O8+M10</f>
         <v>2154.0311612007572</v>
       </c>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
+      <c r="A11" s="21">
         <v>5</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21">
         <v>6</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="21">
         <v>316</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="21">
         <v>50</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="21">
         <v>47</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="21">
         <f>RADIANS(C12+(D12/60)+(E12/3600))</f>
         <v>5.5300127091654891</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="21">
         <v>63.15</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="21">
         <f>COS(F12)*G12</f>
         <v>46.069353728699411</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="21">
         <f>SIN(F12)*G12</f>
         <v>-43.191864361474025</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="21">
         <f>($H$17/$G$17)*G12</f>
         <v>-1.7101179910549028E-3</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="21">
         <f>($I$17/$G$17)*G12</f>
         <v>2.6959545976695115E-2</v>
       </c>
-      <c r="L12" s="27">
+      <c r="L12" s="21">
         <f>H12-J12</f>
         <v>46.071063846690464</v>
       </c>
-      <c r="M12" s="27">
+      <c r="M12" s="21">
         <f>I12-K12</f>
         <v>-43.218823907450719</v>
       </c>
-      <c r="N12" s="27">
+      <c r="N12" s="21">
         <f>N10+L12</f>
         <v>1970.5868134556856</v>
       </c>
-      <c r="O12" s="27">
+      <c r="O12" s="21">
         <f>O10+M12</f>
         <v>2110.8123372933064</v>
       </c>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
+      <c r="A13" s="21">
         <v>6</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21">
         <v>7</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="21">
         <v>254</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="21">
         <v>6</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="21">
         <v>29</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="21">
         <f>RADIANS(C14+(D14/60)+(E14/3600))</f>
         <v>4.4350222252851133</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="21">
         <v>86.35</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="21">
         <f>COS(F14)*G14</f>
         <v>-23.644702316693774</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="21">
         <f>SIN(F14)*G14</f>
         <v>-83.049687250193386</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="21">
         <f>($H$17/$G$17)*G14</f>
         <v>-2.3383798658367515E-3</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="21">
         <f>($I$17/$G$17)*G14</f>
         <v>3.686392391270979E-2</v>
       </c>
-      <c r="L14" s="27">
+      <c r="L14" s="21">
         <f>H14-J14</f>
         <v>-23.642363936827937</v>
       </c>
-      <c r="M14" s="27">
+      <c r="M14" s="21">
         <f>I14-K14</f>
         <v>-83.086551174106091</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="21">
         <f>N12+L14</f>
         <v>1946.9444495188577</v>
       </c>
-      <c r="O14" s="27">
+      <c r="O14" s="21">
         <f>O12+M14</f>
         <v>2027.7257861192004</v>
       </c>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
+      <c r="A15" s="21">
         <v>7</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21">
         <v>1</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="21">
         <v>332</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="21">
         <v>25</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="21">
         <v>49</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="21">
         <f>RADIANS(C16+(D16/60)+(E16/3600))</f>
         <v>5.8020028805415613</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="21">
         <v>59.85</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="21">
         <f>COS(F16)*G16</f>
         <v>53.053929727987068</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="21">
         <f>SIN(F16)*G16</f>
         <v>-27.700235385602948</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="21">
         <f>($H$17/$G$17)*G16</f>
         <v>-1.6207531554178296E-3</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="21">
         <f>($I$17/$G$17)*G16</f>
         <v>2.5550733597865444E-2</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="21">
         <f>H16-J16</f>
         <v>53.055550481142483</v>
       </c>
-      <c r="M16" s="27">
+      <c r="M16" s="21">
         <f>I16-K16</f>
         <v>-27.725786119200812</v>
       </c>
@@ -2899,10 +2986,10 @@
         <f>O14+M16</f>
         <v>1999.9999999999995</v>
       </c>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
     </row>
     <row r="17" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G17" s="4">
@@ -2928,11 +3015,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="H1:H2"/>
@@ -2941,6 +3023,11 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
